--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+          <t>A302966FBEB8741A989E30E3C1DB84A1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -761,10 +761,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Não</t>
@@ -774,7 +778,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -789,19 +793,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>Não</t>
@@ -811,7 +811,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -831,10 +831,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>069ACF289074156352A4781DFCD0D264</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Não</t>
@@ -844,7 +848,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -859,19 +863,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>069ACF289074156352A4781DFCD0D264</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>Não</t>
@@ -881,7 +881,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -901,10 +901,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>Não</t>
@@ -914,7 +918,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -929,19 +933,15 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>Não</t>
@@ -951,7 +951,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1018,14 +1018,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1045,20 +1045,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1073,19 +1077,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1095,7 +1095,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1115,10 +1115,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1128,7 +1132,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1143,19 +1147,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1165,7 +1165,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1202,7 +1202,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1259,20 +1259,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1287,19 +1291,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>912B181376702376839E92A34234AB6F</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1309,7 +1309,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1329,10 +1329,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>916E2681C0054750A9E687574A0B6489</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1342,7 +1346,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1357,19 +1361,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1379,7 +1379,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1453,7 +1453,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6B45729139C2A27BC5092915C751010D</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1483,14 +1483,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1510,20 +1510,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>6B45729139C2A27BC5092915C751010D</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1538,19 +1542,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1560,7 +1560,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1580,10 +1580,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1593,7 +1597,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1608,19 +1612,15 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1630,7 +1630,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
+          <t>5D79082732416772252230E1D5490EFA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1724,10 +1724,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AF14E2ECA5517720C86670A62C3904DA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1737,7 +1741,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1752,19 +1756,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF14E2ECA5517720C86670A62C3904DA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1774,7 +1774,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1794,10 +1794,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1807,7 +1811,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1822,19 +1826,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1844,7 +1844,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4B510245B4216AB5086C563FB12FB142</t>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1938,20 +1938,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>4B510245B4216AB5086C563FB12FB142</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1966,19 +1970,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1988,7 +1988,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2156,13 +2156,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2188,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2202,32 +2206,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ABEGAIR</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4659B7A30E2601F378DEB2E26CC34160</t>
+          <t>417993C4DBC75A5AFB8702A6E8DF1F2E</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2239,34 +2243,30 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>B51387D7D3AACD1978130CE13E6135D2</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2276,34 +2276,30 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>E037A2380B613F045D433F38DE37C94C</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2328,12 +2324,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>ABEGAIR</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
+          <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2365,12 +2361,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CLAILTON</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
+          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2402,12 +2398,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>EDINEI</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>125020B35918660F7BB7CFC53190FCB6</t>
+          <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2439,12 +2435,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ELENA</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
+          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2476,12 +2472,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ELZA</t>
+          <t>CLAILTON</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>655424431A8B5F3909615336BD17841B</t>
+          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2513,12 +2509,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ENORINA</t>
+          <t>EDINEI</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3DFD541F6F09F958714D62AF64C1117A</t>
+          <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2550,12 +2546,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>IVONE</t>
+          <t>ELENA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FB44300B753ABE326562ED9D0D72CE70</t>
+          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2587,12 +2583,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>JESUVINA</t>
+          <t>ELZA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
+          <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2624,12 +2620,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>ENORINA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
+          <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2661,12 +2657,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>IVONE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2994FFBD435DDC1D01F812137427B9BC</t>
+          <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2698,12 +2694,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JESUVINA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
+          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2735,12 +2731,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4D2DF594A01AB6E595524124A4D13559</t>
+          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2772,12 +2768,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MARILENE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
+          <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2809,12 +2805,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14A7AC36E520550299E9A4CCB6965C71</t>
+          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2846,12 +2842,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MARLI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
+          <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2883,12 +2879,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NEIVA</t>
+          <t>MARILENE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>523E7AF091A03C4043D5C9300BC145E2</t>
+          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2920,12 +2916,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ROSIELI</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>97CE285D147B6D4950F8576126FF2790</t>
+          <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2957,12 +2953,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ROSMARI</t>
+          <t>MARLI</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5EE88834BE81F9B132B670B4935B2045</t>
+          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2994,12 +2990,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ROZALE</t>
+          <t>NEIVA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
+          <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3031,12 +3027,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SANTINA</t>
+          <t>ROSIELI</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
+          <t>97CE285D147B6D4950F8576126FF2790</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3068,12 +3064,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ROSMARI</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+          <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3105,12 +3101,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>ROZALE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3142,12 +3138,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SIVENEI</t>
+          <t>SANTINA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
+          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3179,12 +3175,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SOELI</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F487ECDF1C33289A90771E483D5F9850</t>
+          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3216,12 +3212,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>91B82F46BB6722C855901D73395F74C3</t>
+          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3253,12 +3249,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>SIVENEI</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
+          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3290,12 +3286,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>SOELI</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+          <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3327,12 +3323,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ZELIA</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+          <t>91B82F46BB6722C855901D73395F74C3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3349,32 +3345,32 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
+          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3386,30 +3382,34 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3419,32 +3419,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>ZELIA</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
+          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3493,34 +3493,30 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3545,12 +3541,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3567,7 +3563,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3582,12 +3578,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3619,12 +3615,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3641,7 +3637,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3656,12 +3652,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3671,14 +3667,14 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3693,12 +3689,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3730,12 +3726,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3752,7 +3748,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3767,12 +3763,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3782,7 +3778,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -3794,22 +3790,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3831,22 +3827,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>70A9ADEC12B287873D1AD48D0C547221</t>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3863,30 +3859,34 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3933,12 +3933,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3948,15 +3948,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+          <t>70A9ADEC12B287873D1AD48D0C547221</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3966,7 +3970,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3981,19 +3985,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4003,7 +4003,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4018,15 +4018,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4036,34 +4040,30 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4073,32 +4073,32 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4110,34 +4110,30 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4162,12 +4158,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4199,12 +4195,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4236,12 +4232,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4273,12 +4269,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4310,12 +4306,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4347,12 +4343,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4384,12 +4380,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4421,12 +4417,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4458,12 +4454,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4495,12 +4491,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4532,12 +4528,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4569,12 +4565,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4606,12 +4602,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4643,12 +4639,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4680,12 +4676,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4717,12 +4713,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4754,12 +4750,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4791,12 +4787,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4828,12 +4824,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4865,12 +4861,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4902,12 +4898,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4939,12 +4935,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4976,12 +4972,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5013,12 +5009,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5050,12 +5046,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5087,12 +5083,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5124,12 +5120,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5161,12 +5157,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5198,12 +5194,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5235,12 +5231,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5272,12 +5268,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5309,12 +5305,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5346,12 +5342,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5383,12 +5379,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5420,12 +5416,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5457,12 +5453,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5494,12 +5490,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5531,12 +5527,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5568,12 +5564,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5605,12 +5601,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5642,12 +5638,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5679,12 +5675,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5716,12 +5712,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5753,12 +5749,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5790,12 +5786,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5827,12 +5823,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5864,12 +5860,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5901,12 +5897,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5938,12 +5934,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5975,12 +5971,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6012,12 +6008,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6049,12 +6045,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6086,12 +6082,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6123,12 +6119,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6160,12 +6156,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6197,12 +6193,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6234,12 +6230,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6271,12 +6267,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6308,12 +6304,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6345,12 +6341,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6382,12 +6378,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6419,12 +6415,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6456,12 +6452,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6493,12 +6489,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6530,12 +6526,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6567,12 +6563,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6604,12 +6600,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6641,12 +6637,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6678,12 +6674,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6715,12 +6711,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6752,12 +6748,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6789,12 +6785,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6826,12 +6822,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6863,12 +6859,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6900,12 +6896,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6937,12 +6933,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6974,12 +6970,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7011,12 +7007,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7048,12 +7044,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7085,12 +7081,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7122,12 +7118,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7159,12 +7155,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7196,12 +7192,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7233,12 +7229,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7270,12 +7266,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7292,32 +7288,32 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7329,32 +7325,32 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7371,22 +7367,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7403,32 +7399,32 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7440,32 +7436,32 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7492,12 +7488,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7529,12 +7525,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7566,12 +7562,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7603,12 +7599,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7640,12 +7636,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7677,12 +7673,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7714,12 +7710,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7751,12 +7747,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7793,7 +7789,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7830,7 +7826,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7862,12 +7858,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7899,12 +7895,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7936,12 +7932,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7973,12 +7969,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8010,12 +8006,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>NANCI</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8047,12 +8043,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>REGINA</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8084,12 +8080,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>ROMILDA</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8121,12 +8117,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8158,20 +8154,131 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8438,13 +8545,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A05C52C-7D9D-42D0-A125-8BC83E2C47E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D09EE3A-9EDD-40C1-A905-6300525DFAD3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37BD57F6-027E-495D-837F-13976FDE58A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B979BABB-F04D-4DA5-8F5B-76FA35A04A20}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FEAA85B-3FEF-48F0-A500-7E44938EDA80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8FB53A-C0AB-4638-9E80-3EA290FB0AD7}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,7 +881,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+          <t>227226F2F74234576A6EFC794D8E21A2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -938,10 +938,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Não</t>
@@ -951,7 +955,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -966,12 +970,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
+          <t>01E0D01AEDE558F3342E9D727C41C649</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -981,14 +985,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1003,19 +1007,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1025,7 +1025,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1055,14 +1055,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1082,10 +1082,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1095,7 +1099,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1110,12 +1114,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1125,7 +1129,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1151,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1165,7 +1169,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1180,12 +1184,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1202,7 +1206,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1217,19 +1221,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1239,7 +1239,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1296,10 +1296,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1309,7 +1313,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1324,12 +1328,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1339,7 +1343,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1365,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
+          <t>912B181376702376839E92A34234AB6F</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1394,12 +1398,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
+          <t>916E2681C0054750A9E687574A0B6489</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1416,7 +1420,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1431,19 +1435,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1453,7 +1453,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>1E537B21C14022C7B938D8D4143D5D13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1490,7 +1490,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6B45729139C2A27BC5092915C751010D</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1520,14 +1520,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1547,10 +1547,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1575,12 +1579,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1597,7 +1601,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1612,25 +1616,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>6B45729139C2A27BC5092915C751010D</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1645,19 +1653,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1667,7 +1671,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1682,12 +1686,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
+          <t>2744A5DD0FB23CF12E824C7583B75EEC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1719,12 +1723,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1741,7 +1745,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,25 +1760,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AF14E2ECA5517720C86670A62C3904DA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>78617BCAD1B0BCAC07F275EC2C868794</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1789,19 +1797,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1811,7 +1815,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,15 +1830,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>5D79082732416772252230E1D5490EFA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1844,7 +1852,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1859,12 +1867,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1881,7 +1889,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,12 +1904,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+          <t>65A0D7B4C24375A608DAC6FADAD989A5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1918,7 +1926,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1933,12 +1941,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4B510245B4216AB5086C563FB12FB142</t>
+          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1948,14 +1956,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1970,25 +1978,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>3FD1B0E32DF6DABC36E289DAE1225183</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2003,19 +2015,15 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF14E2ECA5517720C86670A62C3904DA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2025,7 +2033,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2040,12 +2048,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+          <t>5D78DE87B5868A34CFA30112DD368838</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2062,7 +2070,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2077,12 +2085,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2099,7 +2107,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2114,12 +2122,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>C6B08D75EAF0BA2614CDED593506EE5C</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2129,14 +2137,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2151,29 +2159,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2188,15 +2192,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2221,12 +2229,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Valdemar</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>417993C4DBC75A5AFB8702A6E8DF1F2E</t>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2243,7 +2251,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2258,18 +2266,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Valdemar</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>B51387D7D3AACD1978130CE13E6135D2</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>4B510245B4216AB5086C563FB12FB142</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2303,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2309,32 +2321,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ABEGAIR</t>
+          <t>Roselei</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4659B7A30E2601F378DEB2E26CC34160</t>
+          <t>4C941FC79CECAC99DE5A133CBE6CBBEF</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2346,32 +2358,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>Roselei</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
+          <t>FAF18ECBD427EC03D66972A9A389E0B6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2383,32 +2395,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>E037A2380B613F045D433F38DE37C94C</t>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2420,32 +2432,32 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2457,32 +2469,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CLAILTON</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2494,32 +2506,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>EDINEI</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>125020B35918660F7BB7CFC53190FCB6</t>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2531,71 +2543,67 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ELENA</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ELZA</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>655424431A8B5F3909615336BD17841B</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2605,32 +2613,32 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ENORINA</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3DFD541F6F09F958714D62AF64C1117A</t>
+          <t>1EC12E84E4CC9ED8FC92160DECFCF15E</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2642,32 +2650,32 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IVONE</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FB44300B753ABE326562ED9D0D72CE70</t>
+          <t>417993C4DBC75A5AFB8702A6E8DF1F2E</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2679,71 +2687,67 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>JESUVINA</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
+          <t>6DAB23FAD316D1A695F91E2AA3269362</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>B51387D7D3AACD1978130CE13E6135D2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2753,34 +2757,30 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2994FFBD435DDC1D01F812137427B9BC</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2805,12 +2805,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ABEGAIR</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
+          <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4D2DF594A01AB6E595524124A4D13559</t>
+          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2879,12 +2879,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MARILENE</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
+          <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14A7AC36E520550299E9A4CCB6965C71</t>
+          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MARLI</t>
+          <t>CLAILTON</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
+          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2990,12 +2990,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NEIVA</t>
+          <t>EDINEI</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>523E7AF091A03C4043D5C9300BC145E2</t>
+          <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3027,12 +3027,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ROSIELI</t>
+          <t>ELENA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97CE285D147B6D4950F8576126FF2790</t>
+          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ROSMARI</t>
+          <t>ELZA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5EE88834BE81F9B132B670B4935B2045</t>
+          <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ROZALE</t>
+          <t>ENORINA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
+          <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SANTINA</t>
+          <t>IVONE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
+          <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3175,12 +3175,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>JESUVINA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3212,12 +3212,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SIVENEI</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
+          <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SOELI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F487ECDF1C33289A90771E483D5F9850</t>
+          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>91B82F46BB6722C855901D73395F74C3</t>
+          <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3360,12 +3360,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>MARILENE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
+          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+          <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ZELIA</t>
+          <t>MARLI</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3456,32 +3456,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>NEIVA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
+          <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3493,30 +3493,34 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>ROSIELI</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>97CE285D147B6D4950F8576126FF2790</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3526,32 +3530,32 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>ROSMARI</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3563,32 +3567,32 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>ROZALE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
+          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3600,32 +3604,32 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>SANTINA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3637,32 +3641,32 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3674,32 +3678,32 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
+          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3711,32 +3715,32 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>SIVENEI</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3748,69 +3752,69 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>SOELI</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>91B82F46BB6722C855901D73395F74C3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3822,32 +3826,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3859,32 +3863,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>AAD30565EEE58D53934640A5A0C5217A</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3896,32 +3900,32 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>ZELIA</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3938,22 +3942,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>70A9ADEC12B287873D1AD48D0C547221</t>
+          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3975,22 +3979,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -4003,34 +4007,30 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>ARILDO</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2692C39A994F0391832065B3368104D8</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4040,30 +4040,34 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4078,22 +4082,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4115,22 +4119,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+          <t>82EAA18D919100879D4BB554860AF551</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -4143,32 +4147,32 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4180,32 +4184,32 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
+          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4217,34 +4221,30 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4254,32 +4254,32 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4291,32 +4291,32 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4328,32 +4328,32 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4365,34 +4365,30 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4402,32 +4398,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4439,32 +4435,32 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4476,34 +4472,30 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4513,32 +4505,32 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4550,32 +4542,32 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4587,69 +4579,69 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>C26495A50177CF41D4C8425582B6D9DF</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4661,32 +4653,32 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4698,34 +4690,30 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4735,32 +4723,32 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>262C8D78B788FE8E10B37F63790EA02C</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4772,32 +4760,32 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4809,32 +4797,32 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4846,32 +4834,32 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4883,32 +4871,32 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4920,32 +4908,32 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4957,32 +4945,32 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>E707012699BE683796CD813AF6F6F4AD</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4994,34 +4982,30 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5031,32 +5015,32 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5068,32 +5052,32 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5105,34 +5089,30 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5142,32 +5122,32 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5179,34 +5159,30 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5216,32 +5192,32 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5253,71 +5229,67 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F58588B87BF51B895223371D1018E16F</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5327,32 +5299,32 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5364,34 +5336,30 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5401,34 +5369,30 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5438,32 +5402,32 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5475,34 +5439,30 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5512,32 +5472,32 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5549,34 +5509,30 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5601,12 +5557,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5638,12 +5594,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5675,12 +5631,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5712,12 +5668,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5749,12 +5705,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5786,12 +5742,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5823,12 +5779,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5860,12 +5816,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5897,12 +5853,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5934,12 +5890,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5971,12 +5927,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6008,12 +5964,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6045,12 +6001,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6082,12 +6038,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6119,12 +6075,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6156,12 +6112,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6193,12 +6149,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6230,12 +6186,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6267,12 +6223,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6304,12 +6260,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6341,12 +6297,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6378,12 +6334,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6415,12 +6371,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6452,12 +6408,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6489,12 +6445,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6526,12 +6482,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6563,12 +6519,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6600,12 +6556,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6637,12 +6593,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6674,12 +6630,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6711,12 +6667,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6748,12 +6704,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6785,12 +6741,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6822,12 +6778,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6859,12 +6815,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6896,12 +6852,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6933,12 +6889,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6970,12 +6926,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7007,12 +6963,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7044,12 +7000,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7081,12 +7037,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7118,12 +7074,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7155,12 +7111,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7192,12 +7148,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7229,12 +7185,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7266,12 +7222,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7303,12 +7259,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7340,12 +7296,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7377,12 +7333,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7399,32 +7355,32 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7436,32 +7392,32 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7478,22 +7434,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7515,22 +7471,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7552,22 +7508,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7589,22 +7545,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7626,22 +7582,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7663,22 +7619,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7700,22 +7656,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7737,22 +7693,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7774,22 +7730,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7811,22 +7767,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7848,22 +7804,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7885,22 +7841,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7922,22 +7878,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7959,22 +7915,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7996,22 +7952,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8033,22 +7989,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8070,22 +8026,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8107,22 +8063,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8144,22 +8100,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8181,22 +8137,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8218,22 +8174,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8255,30 +8211,1473 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>SANDRA</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>SERGIO</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>SOLANGE</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>SOLANGE</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>TERESA</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>VAGNER</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>VALDECIR</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>VALDECIR</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>VALDECIR</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>VALDELIR</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>4A67F2639BF3A22A</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>VALDEMAR</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>VALMOR</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>VERA</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>VERA</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>VIVALDINO</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>C573D9CB02AD42FB2BA99478</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>MARCOS FREIRE</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>RIO BONITO DO IGUACU</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ZELI</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Análise para regularização</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ROSELI NUNES</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SAO JERONIMO DA SERRA</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para regularização</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ROSELI NUNES</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SAO JERONIMO DA SERRA</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>MANGUEIRINHA</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ALGEO</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>CATIANE</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ELIANA</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>EVANDRO</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>IZABEL</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>JULIANA</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>LORENI</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>LUANA</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>MARLENE</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>NANCI</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>REGINA</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>ROMILDA</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
         <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8545,13 +9944,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D09EE3A-9EDD-40C1-A905-6300525DFAD3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2191B9A1-023B-476A-9840-583C01C45A52}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B979BABB-F04D-4DA5-8F5B-76FA35A04A20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B4A51B-2239-4901-94BE-CAA8404D44CA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC8FB53A-C0AB-4638-9E80-3EA290FB0AD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F722D51F-2577-4904-9205-04F14AC1A39D}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Código SIPRA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Nome T1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Autenticador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Objetivo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Segundo Relatório</t>
         </is>
@@ -488,16 +493,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adelar</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3FF2D22819B3330B814BC9017012393F</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -521,16 +531,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Gilson</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>B3EE9D5D76BD409C47B284B0C6BC8CB7</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -554,16 +569,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Ines</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -587,16 +607,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Jorge</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>06855696C53B152D1717D3DE86140AD1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -620,16 +645,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Soeli</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3CA6C46411C695A1710CEFD2499C1735</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -653,16 +683,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Valderi</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -686,16 +721,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>PR0287000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vanessa</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>078361EC3D7AF904BAF708191384988D</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -719,20 +759,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adrian</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>A302966FBEB8741A989E30E3C1DB84A1</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -756,20 +801,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adrian</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -793,16 +843,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adrian</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -826,20 +881,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Andiara</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -863,16 +923,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Andiara</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>069ACF289074156352A4781DFCD0D264</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -896,20 +961,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Claudineia</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>227226F2F74234576A6EFC794D8E21A2</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -933,20 +1003,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Claudineia</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>58258FAC18CC8DE705C5107FC0A0B759</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -970,20 +1045,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Claudineia</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>01E0D01AEDE558F3342E9D727C41C649</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1007,16 +1087,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Claudineia</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>AF93B4687B22186B9F40FA9CAF59355D</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1040,20 +1125,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Cristiane</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>180B234A9A4D11A43083BF6E6BFF3617</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1077,20 +1167,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Cristiane</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1114,20 +1209,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Cristiane</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B44DAF5094FF26D7D29600F23051E9C7</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1151,16 +1251,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Cristiane</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>0B020F956312AEDBA007ECBA724ED40B</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1184,20 +1289,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Debora</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>874465517EEF60A1E4B3C3E4DBF99215</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1221,16 +1331,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Debora</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1254,20 +1369,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Gabriel</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>962E98FB0F61D261DB0D48C557F70ED2</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1291,20 +1411,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Gabriel</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1328,20 +1453,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Gabriel</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1365,16 +1495,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Gabriel</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>912B181376702376839E92A34234AB6F</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1398,20 +1533,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Juliana</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>916E2681C0054750A9E687574A0B6489</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1435,16 +1575,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Juliana</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>F17621921D038A38C3EB0D53E3733F98</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1468,20 +1613,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Laudiceia</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1E537B21C14022C7B938D8D4143D5D13</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1505,20 +1655,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Laudiceia</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1542,20 +1697,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Luciane</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1579,20 +1739,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Luciane</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1616,20 +1781,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Luciane</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>6B45729139C2A27BC5092915C751010D</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1653,16 +1823,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Luciane</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2A8C3895F9792659241327C30A81AC6D</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1686,20 +1861,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Marlei</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2744A5DD0FB23CF12E824C7583B75EEC</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1723,20 +1903,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Marlei</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1A97F4E202A341184318AE16C57D676A</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1760,20 +1945,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Marlei</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>78617BCAD1B0BCAC07F275EC2C868794</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1797,16 +1987,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Marlei</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1830,20 +2025,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Milene</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>5D79082732416772252230E1D5490EFA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1867,20 +2067,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Milene</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1904,20 +2109,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Nilda</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>65A0D7B4C24375A608DAC6FADAD989A5</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1941,20 +2151,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Nilda</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1978,20 +2193,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Nilda</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>3FD1B0E32DF6DABC36E289DAE1225183</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2015,16 +2235,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Nilda</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>AF14E2ECA5517720C86670A62C3904DA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2048,20 +2273,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Peterson</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>5D78DE87B5868A34CFA30112DD368838</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2085,20 +2315,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Peterson</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2122,20 +2357,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Peterson</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>C6B08D75EAF0BA2614CDED593506EE5C</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2159,16 +2399,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Peterson</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2192,20 +2437,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Rosali</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>B60C7E7F1D99B95E70667D96328CBC70</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2229,20 +2479,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Rosali</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2266,20 +2521,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Rosali</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>4B510245B4216AB5086C563FB12FB142</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2303,16 +2563,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Rosali</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>C154AC8381DB0FCD102A1559720175A7</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2336,20 +2601,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Roselei</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>4C941FC79CECAC99DE5A133CBE6CBBEF</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2373,20 +2643,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Roselei</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>FAF18ECBD427EC03D66972A9A389E0B6</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2410,20 +2685,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Sandra</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>112D6F0C94649FCED3C07DC35802FB79</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2447,20 +2727,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Sandra</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2484,20 +2769,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Simone</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>183830569A2CEF2EEF133D2A68AB051A</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2521,20 +2811,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Simone</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2558,20 +2853,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Simone</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>866FFD0DE100FC917059EF68503DA039</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2595,16 +2895,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Simone</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>DB62A611FC09102671B3EA905E42C24C</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2628,20 +2933,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Valdemar</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1EC12E84E4CC9ED8FC92160DECFCF15E</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2665,20 +2975,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Valdemar</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>417993C4DBC75A5AFB8702A6E8DF1F2E</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2702,20 +3017,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Valdemar</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>6DAB23FAD316D1A695F91E2AA3269362</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2739,16 +3059,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Valdemar</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>B51387D7D3AACD1978130CE13E6135D2</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2772,16 +3097,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>PR0395000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Vilmar</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2805,20 +3135,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>ABEGAIR</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2842,20 +3177,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>ALICE</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2879,20 +3219,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>ANA</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2916,20 +3261,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>AURORA</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2953,20 +3303,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>CLAILTON</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G71" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2990,20 +3345,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>EDINEI</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3027,20 +3387,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>ELENA</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3064,20 +3429,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>ELZA</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3101,20 +3471,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>ENORINA</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3138,20 +3513,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>IVONE</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3175,20 +3555,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>JESUVINA</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3212,20 +3597,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>JOAO</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3249,20 +3639,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>JOSE</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3286,20 +3681,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>MARIA</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3323,20 +3723,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>MARIA</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3360,20 +3765,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>MARILENE</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3397,20 +3807,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>MARLENE</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3434,20 +3849,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>MARLI</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3471,20 +3891,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>NEIVA</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3508,20 +3933,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>ROSIELI</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>97CE285D147B6D4950F8576126FF2790</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3545,20 +3975,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>ROSMARI</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3582,20 +4017,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>ROZALE</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3619,20 +4059,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>SANTINA</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3656,20 +4101,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>SILVIA</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>FACE3828DD6456398038C0E5DBD30DF2</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3693,20 +4143,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>SILVIA</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3730,20 +4185,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>SIVENEI</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3767,20 +4227,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>SOELI</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3804,20 +4269,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>91B82F46BB6722C855901D73395F74C3</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3841,20 +4311,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>VALERIA</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3878,20 +4353,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>VERA</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>AAD30565EEE58D53934640A5A0C5217A</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G96" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3915,20 +4395,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>PR0330000</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>ZELIA</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>B8DE5448881F3B1A6AB70F13663A970C</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
       <c r="G97" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3952,20 +4437,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>PR0260000</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Fernanda</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3989,16 +4479,21 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>PR0260000</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Fernanda</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4022,16 +4517,21 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>ARILDO</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>2692C39A994F0391832065B3368104D8</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4055,20 +4555,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>Adelar</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>98518C564982BC7968097BDEDA2A9BDB</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4092,20 +4597,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Angela</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4129,16 +4639,21 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>Angela</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>82EAA18D919100879D4BB554860AF551</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4162,20 +4677,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t>8E72E0C936FC67DED5A7375366300F38</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4199,20 +4719,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4221,7 +4746,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4236,16 +4761,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>Desconhecido</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Caroline</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4254,7 +4788,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4269,20 +4803,21 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
+          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4306,20 +4841,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
+          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4328,7 +4868,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4343,20 +4883,21 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
+          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4365,7 +4906,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4380,16 +4921,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>Clemair</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>B09FA11FF813D11B291D5D2148404904</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4413,20 +4963,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
+          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4435,7 +4990,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4450,20 +5005,21 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
+          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4472,7 +5028,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4487,16 +5043,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+          <t>Dangela</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>F894248516B0C12E889D575C5B0BCD38</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4505,7 +5070,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4520,20 +5085,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
+          <t>878FEAD5322A30A366D5BB111724CD38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4557,20 +5127,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4579,7 +5154,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4594,22 +5169,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4631,20 +5211,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C26495A50177CF41D4C8425582B6D9DF</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4653,7 +5238,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4668,20 +5253,21 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4690,7 +5276,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4705,16 +5291,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
+          <t>Ines</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4723,7 +5318,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4738,20 +5333,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>262C8D78B788FE8E10B37F63790EA02C</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4760,7 +5360,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4775,20 +5375,21 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4812,20 +5413,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
+          <t>858F8BC32AE202824E8E30068BABC885</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4834,7 +5440,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4849,20 +5455,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4886,20 +5497,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4908,7 +5524,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4923,22 +5539,27 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -4960,20 +5581,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>E707012699BE683796CD813AF6F6F4AD</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
+          <t>C26495A50177CF41D4C8425582B6D9DF</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -4982,7 +5608,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4997,16 +5623,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr"/>
+          <t>Renilda</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5015,35 +5650,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
+          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5052,35 +5688,40 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
+          <t>262C8D78B788FE8E10B37F63790EA02C</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5089,31 +5730,40 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr"/>
+          <t>Roseli</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5127,30 +5777,35 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
+          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5164,26 +5819,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
+          <t>Rozineia</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5197,30 +5857,35 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5229,37 +5894,42 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Sim</t>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -5271,26 +5941,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>F58588B87BF51B895223371D1018E16F</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
+          <t>Sueli</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>FA3929C36710AF57A54DE91D4458A85A</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5304,30 +5979,35 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5336,31 +6016,40 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
+          <t>Vanessa</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
+        </is>
+      </c>
       <c r="G137" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5369,31 +6058,40 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
+          <t>Volnei</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>E707012699BE683796CD813AF6F6F4AD</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5402,35 +6100,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Regularização</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
+          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5439,12 +6138,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5454,16 +6153,25 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+        </is>
+      </c>
       <c r="G140" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5477,7 +6185,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5487,20 +6195,25 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>Regularização</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5509,12 +6222,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5524,16 +6237,25 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr"/>
+          <t>Gleison</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>E1D17F641C405F3137261DBE1E868793</t>
+        </is>
+      </c>
       <c r="G142" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5542,35 +6264,40 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>1E0BCC761C9102F203FE85F95B668378</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5579,35 +6306,40 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5616,35 +6348,40 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5653,35 +6390,36 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
+          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5690,35 +6428,40 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>Nilva</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>A310746694C20249509EFF10BB459DB3</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5727,35 +6470,40 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5764,35 +6512,36 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5801,35 +6550,40 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5838,72 +6592,78 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
+          <t>F58588B87BF51B895223371D1018E16F</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5912,35 +6672,40 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5949,35 +6714,36 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -5986,35 +6752,36 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>apresentou</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
+          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6023,35 +6790,36 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6060,35 +6828,40 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6097,35 +6870,36 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6134,35 +6908,40 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6171,35 +6950,36 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6223,20 +7003,25 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6260,20 +7045,25 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6297,20 +7087,25 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6334,20 +7129,25 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6371,20 +7171,25 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6408,20 +7213,25 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6445,20 +7255,25 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6482,20 +7297,25 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6519,20 +7339,25 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6556,20 +7381,25 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6593,20 +7423,25 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6630,20 +7465,25 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6667,20 +7507,25 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6704,20 +7549,25 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6741,20 +7591,25 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6778,20 +7633,25 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6815,20 +7675,25 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6852,20 +7717,25 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6889,20 +7759,25 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6926,20 +7801,25 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -6963,20 +7843,25 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7000,20 +7885,25 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7037,20 +7927,25 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7074,20 +7969,25 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7111,20 +8011,25 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7148,20 +8053,25 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7185,20 +8095,25 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7222,20 +8137,25 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7259,20 +8179,25 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7296,20 +8221,25 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7333,20 +8263,25 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7370,20 +8305,25 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7407,20 +8347,25 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7444,20 +8389,25 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7481,20 +8431,25 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7518,20 +8473,25 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7555,20 +8515,25 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7592,20 +8557,25 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7629,20 +8599,25 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7666,20 +8641,25 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7703,20 +8683,25 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7740,20 +8725,25 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7777,20 +8767,25 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7814,20 +8809,25 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7851,20 +8851,25 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7888,20 +8893,25 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7925,20 +8935,25 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7962,20 +8977,25 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -7999,20 +9019,25 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8036,20 +9061,25 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8073,20 +9103,25 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8110,20 +9145,25 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8147,20 +9187,25 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8184,20 +9229,25 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8221,20 +9271,25 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8258,20 +9313,25 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8295,20 +9355,25 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8332,20 +9397,25 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8369,20 +9439,25 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8406,20 +9481,25 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8443,20 +9523,25 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8480,20 +9565,25 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8517,20 +9607,25 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8554,20 +9649,25 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8591,20 +9691,25 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8628,20 +9733,25 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8665,20 +9775,25 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8702,20 +9817,25 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8739,20 +9859,25 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8776,20 +9901,25 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8798,35 +9928,40 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8835,35 +9970,40 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8877,30 +10017,35 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8914,30 +10059,35 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8951,30 +10101,35 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -8988,30 +10143,35 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9025,30 +10185,35 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9062,30 +10227,35 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9099,30 +10269,35 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9136,30 +10311,35 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9173,30 +10353,35 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9210,30 +10395,35 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9247,30 +10437,35 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9284,30 +10479,35 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9321,30 +10521,35 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9358,30 +10563,35 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9395,30 +10605,35 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9432,30 +10647,35 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9464,35 +10684,40 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9501,35 +10726,40 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9553,20 +10783,25 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>PR0308000</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9590,20 +10825,25 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>PR0308000</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9627,20 +10867,25 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>PR0308000</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9664,20 +10909,781 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>EVANDRO</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>IZABEL</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>JULIANA</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>LORENI</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>LUANA</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>MARLENE</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>NANCI</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>REGINA</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>ROMILDA</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -9944,13 +11950,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2191B9A1-023B-476A-9840-583C01C45A52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5773A92-4721-4965-AC7E-6E77E96DDE66}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89B4A51B-2239-4901-94BE-CAA8404D44CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E34770-DB21-4A13-AA05-457A7D49C876}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F722D51F-2577-4904-9205-04F14AC1A39D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA32B36-26A7-4606-AC4D-B4F78F54CB51}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,12 +4602,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
+          <t>8A6E1D71E498BB31786C3264249087BA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>82EAA18D919100879D4BB554860AF551</t>
+          <t>7AE9703D3A7E20108D1B4A3EE652FA8F</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -4682,12 +4682,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Arlei</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>8E72E0C936FC67DED5A7375366300F38</t>
+          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4704,7 +4704,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4724,19 +4724,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>82EAA18D919100879D4BB554860AF551</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4766,12 +4762,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+          <t>8E72E0C936FC67DED5A7375366300F38</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4788,7 +4784,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4808,15 +4804,19 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
+          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
+          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>B09FA11FF813D11B291D5D2148404904</t>
+          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4968,19 +4968,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4990,7 +4986,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5010,15 +5006,19 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
+          <t>B09FA11FF813D11B291D5D2148404904</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5028,7 +5028,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5048,19 +5048,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>F894248516B0C12E889D575C5B0BCD38</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5070,7 +5066,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5090,12 +5086,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>878FEAD5322A30A366D5BB111724CD38</t>
+          <t>6000A69FD38345E94CD5F48417E322E0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5132,12 +5128,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5154,7 +5150,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5174,12 +5170,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+          <t>381725552941D96B3E519C462F80C308</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5189,14 +5185,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5216,19 +5212,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5238,7 +5230,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5258,15 +5250,19 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
+          <t>F894248516B0C12E889D575C5B0BCD38</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5296,12 +5292,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>878FEAD5322A30A366D5BB111724CD38</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5338,12 +5334,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5360,7 +5356,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5380,15 +5376,19 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr"/>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5418,12 +5418,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>858F8BC32AE202824E8E30068BABC885</t>
+          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5460,19 +5460,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C78920FEA37C8424314EE6999D32CD93</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5502,12 +5498,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5524,7 +5520,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5544,22 +5540,18 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -5586,12 +5578,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>C26495A50177CF41D4C8425582B6D9DF</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5628,12 +5620,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5670,12 +5662,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -5708,12 +5700,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>262C8D78B788FE8E10B37F63790EA02C</t>
+          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5750,12 +5742,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+          <t>858F8BC32AE202824E8E30068BABC885</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5772,7 +5764,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5792,12 +5784,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5814,7 +5806,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5834,15 +5826,19 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5852,7 +5848,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5872,12 +5868,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5887,7 +5883,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -5914,12 +5910,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
+          <t>956BA10DD30AE94223915B7BBACDA77B</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5956,12 +5952,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>FA3929C36710AF57A54DE91D4458A85A</t>
+          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -5974,7 +5970,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5994,12 +5990,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6036,12 +6032,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>C26495A50177CF41D4C8425582B6D9DF</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6058,7 +6054,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6078,12 +6074,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>E707012699BE683796CD813AF6F6F4AD</t>
+          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6093,7 +6089,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -6120,12 +6116,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
+          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -6143,27 +6139,27 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6180,39 +6176,35 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Cleci</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6227,27 +6219,27 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>E1D17F641C405F3137261DBE1E868793</t>
+          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6264,39 +6256,35 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1E0BCC761C9102F203FE85F95B668378</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>E8775E9CF0B97F4313885D7493883EAE</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6306,32 +6294,32 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
+          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6353,27 +6341,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
+          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6390,77 +6378,77 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
+          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Nilva</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>A310746694C20249509EFF10BB459DB3</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6470,32 +6458,32 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+          <t>262C8D78B788FE8E10B37F63790EA02C</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6512,35 +6500,39 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6555,27 +6547,27 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6592,77 +6584,77 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>F58588B87BF51B895223371D1018E16F</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6677,27 +6669,27 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6719,27 +6711,27 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+          <t>FA3929C36710AF57A54DE91D4458A85A</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -6752,35 +6744,39 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>apresentou</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6790,35 +6786,39 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6833,27 +6833,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>E707012699BE683796CD813AF6F6F4AD</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6875,27 +6875,27 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
+          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6923,17 +6923,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6950,12 +6950,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6965,20 +6965,24 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6988,37 +6992,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7030,37 +7034,37 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
+          <t>E1D17F641C405F3137261DBE1E868793</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7072,37 +7076,37 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>F746DB985681753067EE126476367354</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7114,39 +7118,35 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7156,37 +7156,37 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>1E0BCC761C9102F203FE85F95B668378</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7198,37 +7198,37 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7240,37 +7240,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7282,39 +7282,35 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7324,37 +7320,37 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Nilva</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>A310746694C20249509EFF10BB459DB3</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7366,37 +7362,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7408,39 +7404,35 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7450,37 +7442,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7492,81 +7484,77 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F58588B87BF51B895223371D1018E16F</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7576,37 +7564,37 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7618,39 +7606,35 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7660,39 +7644,35 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>apresentou</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7702,39 +7682,35 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7744,37 +7720,37 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7786,39 +7762,35 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7828,37 +7800,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7870,39 +7842,35 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7932,12 +7900,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7974,12 +7942,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8016,12 +7984,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8058,12 +8026,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8100,12 +8068,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8142,12 +8110,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8184,12 +8152,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8226,12 +8194,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8268,12 +8236,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8310,12 +8278,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8352,12 +8320,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8394,12 +8362,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8436,12 +8404,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8478,12 +8446,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8520,12 +8488,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8562,12 +8530,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8604,12 +8572,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8646,12 +8614,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8688,12 +8656,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8730,12 +8698,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8772,12 +8740,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8814,12 +8782,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8856,12 +8824,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8898,12 +8866,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8940,12 +8908,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8982,12 +8950,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9024,12 +8992,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9066,12 +9034,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9108,12 +9076,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9150,12 +9118,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9192,12 +9160,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9234,12 +9202,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9276,12 +9244,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9318,12 +9286,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9360,12 +9328,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9402,12 +9370,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9444,12 +9412,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9486,12 +9454,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9528,12 +9496,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9570,12 +9538,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9612,12 +9580,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9654,12 +9622,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9696,12 +9664,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9738,12 +9706,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9780,12 +9748,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9822,12 +9790,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9864,12 +9832,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9906,12 +9874,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9948,12 +9916,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9990,12 +9958,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10032,12 +10000,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10074,12 +10042,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10116,12 +10084,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10158,12 +10126,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10200,12 +10168,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10242,12 +10210,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10284,12 +10252,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10326,12 +10294,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10368,12 +10336,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10410,12 +10378,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10452,12 +10420,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10494,12 +10462,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10536,12 +10504,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10578,12 +10546,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10620,12 +10588,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10662,12 +10630,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10684,37 +10652,37 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -10726,37 +10694,37 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -10773,27 +10741,27 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10815,27 +10783,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10857,27 +10825,27 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10899,27 +10867,27 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10941,27 +10909,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10983,27 +10951,27 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11025,27 +10993,27 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11067,27 +11035,27 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11109,27 +11077,27 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11151,27 +11119,27 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11193,27 +11161,27 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11235,27 +11203,27 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11277,27 +11245,27 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11319,27 +11287,27 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11361,27 +11329,27 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11403,27 +11371,27 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11445,27 +11413,27 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11487,27 +11455,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11529,27 +11497,27 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11571,27 +11539,27 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11608,37 +11576,37 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -11650,40 +11618,964 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
+          <t>ROSELI NUNES</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>SAO JERONIMO DA SERRA</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>PR0229000</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
           <t>SÃO JOÃO MARIA</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>MANGUEIRINHA</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="D273" t="inlineStr">
         <is>
           <t>PR0308000</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>ALGEO</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>CATIANE</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>ELIANA</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>EVANDRO</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>IZABEL</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>JULIANA</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>LORENI</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>LUANA</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>MARLENE</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>NANCI</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>REGINA</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>ROMILDA</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
         <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -11692,271 +12584,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4835AA70C4D8D429578EE9EA2DD985E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5664f08413005a6c659c6cf8d2b1ae07">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xmlns:ns3="90d378fd-e11f-44e1-bf8c-be94be6862ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da305ccf9ee6e1c1ef9ec698176e69e" ns2:_="" ns3:_="">
-    <xsd:import namespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c"/>
-    <xsd:import namespace="90d378fd-e11f-44e1-bf8c-be94be6862ca"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1953b641-ef7e-4547-82ac-62cfa4e0045b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="465bad51-02e6-4ee3-aca2-97a00dffbf5c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90d378fd-e11f-44e1-bf8c-be94be6862ca" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a5e3a396-6ff9-41c4-9ea6-a3ac188d4dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90d378fd-e11f-44e1-bf8c-be94be6862ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5773A92-4721-4965-AC7E-6E77E96DDE66}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E34770-DB21-4A13-AA05-457A7D49C876}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA32B36-26A7-4606-AC4D-B4F78F54CB51}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4784,7 +4784,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4804,19 +4804,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>1136A6D50AEF3916A511239319485135</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5230,7 +5226,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5250,12 +5246,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Cleuza</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>F894248516B0C12E889D575C5B0BCD38</t>
+          <t>C9AC9040361D239607879447C79C4141</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5272,7 +5268,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5297,7 +5293,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>878FEAD5322A30A366D5BB111724CD38</t>
+          <t>F894248516B0C12E889D575C5B0BCD38</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5334,12 +5330,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+          <t>878FEAD5322A30A366D5BB111724CD38</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5376,12 +5372,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5418,12 +5414,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5440,7 +5436,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5465,10 +5461,14 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>C78920FEA37C8424314EE6999D32CD93</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr"/>
+          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5478,7 +5478,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5498,19 +5498,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C78920FEA37C8424314EE6999D32CD93</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5520,7 +5516,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5545,10 +5541,14 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5558,7 +5558,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5578,19 +5578,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5620,12 +5616,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5642,7 +5638,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5667,10 +5663,14 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5680,7 +5680,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5700,19 +5700,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6992,7 +6988,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7012,19 +7008,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>6957983878C95CB4EDF51BB2260110EC</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7034,7 +7026,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7059,7 +7051,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>E1D17F641C405F3137261DBE1E868793</t>
+          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7096,12 +7088,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>F746DB985681753067EE126476367354</t>
+          <t>E1D17F641C405F3137261DBE1E868793</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7138,12 +7130,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
+          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -7156,7 +7148,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7176,12 +7168,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1E0BCC761C9102F203FE85F95B668378</t>
+          <t>CDC3571412820CF9017E4910CA14065B</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7198,7 +7190,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7218,19 +7210,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>FA552E00F6BE0438307D41188B5F7B1D</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7260,12 +7248,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
+          <t>F746DB985681753067EE126476367354</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7302,12 +7290,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -7320,7 +7308,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7340,12 +7328,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Nilva</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>A310746694C20249509EFF10BB459DB3</t>
+          <t>1E0BCC761C9102F203FE85F95B668378</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7382,12 +7370,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7404,7 +7392,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7424,15 +7412,19 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
+          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7442,7 +7434,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7462,19 +7454,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7484,7 +7472,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7504,12 +7492,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Marli</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>AD1312462CEDF19B4CEDCFA1E337A46E</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7519,7 +7507,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7534,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Marli</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>F58588B87BF51B895223371D1018E16F</t>
+          <t>564BFCEC5D6BC6120CD3FEA1B09C6386</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -7584,12 +7572,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+          <t>107FA83B470FDF7DA92100EFA78F1820</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7626,12 +7614,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+          <t>276824C1C7BC62258BDB95A026043A73</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -7644,7 +7632,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7664,15 +7652,19 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>apresentou</t>
+          <t>Nilva</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
+          <t>A310746694C20249509EFF10BB459DB3</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7682,12 +7674,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7697,20 +7689,24 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7720,12 +7716,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7735,24 +7731,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7762,12 +7754,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7777,20 +7769,24 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7800,12 +7796,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7815,17 +7811,17 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7835,7 +7831,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7843,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7857,17 +7853,17 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+          <t>F58588B87BF51B895223371D1018E16F</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -7880,37 +7876,37 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7922,39 +7918,35 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7964,37 +7956,37 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8006,39 +7998,35 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8048,37 +8036,37 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8090,39 +8078,35 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8132,37 +8116,37 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8174,39 +8158,35 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8216,37 +8196,37 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JARAU</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>CANTAGALO</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0065000</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8278,12 +8258,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8320,12 +8300,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8362,12 +8342,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8404,12 +8384,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8446,12 +8426,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8488,12 +8468,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8530,12 +8510,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8572,12 +8552,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8614,12 +8594,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8656,12 +8636,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8698,12 +8678,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8740,12 +8720,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8782,12 +8762,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8824,12 +8804,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8866,12 +8846,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8908,12 +8888,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8950,12 +8930,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8992,12 +8972,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9034,12 +9014,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9076,12 +9056,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9118,12 +9098,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9160,12 +9140,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9202,12 +9182,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9244,12 +9224,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9286,12 +9266,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9328,12 +9308,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9370,12 +9350,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9412,12 +9392,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9454,12 +9434,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9496,12 +9476,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9538,12 +9518,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9580,12 +9560,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9622,12 +9602,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9664,12 +9644,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9706,12 +9686,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9748,12 +9728,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9790,12 +9770,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9832,12 +9812,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9874,12 +9854,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9916,12 +9896,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9958,12 +9938,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10000,12 +9980,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10042,12 +10022,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10084,12 +10064,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10126,12 +10106,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10168,12 +10148,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10210,12 +10190,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10252,12 +10232,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10294,12 +10274,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10336,12 +10316,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10378,12 +10358,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10420,12 +10400,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10462,12 +10442,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10504,12 +10484,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10546,12 +10526,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10588,12 +10568,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10630,12 +10610,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10672,12 +10652,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10714,12 +10694,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10756,12 +10736,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10798,12 +10778,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10840,12 +10820,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10882,12 +10862,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10924,12 +10904,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10966,12 +10946,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -11008,12 +10988,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11050,12 +11030,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11092,12 +11072,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11134,12 +11114,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11176,12 +11156,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11218,12 +11198,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11260,12 +11240,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11302,12 +11282,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11344,12 +11324,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11386,12 +11366,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11428,12 +11408,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11470,12 +11450,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11512,12 +11492,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11554,12 +11534,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11576,37 +11556,37 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -11618,37 +11598,37 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -11665,27 +11645,27 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11707,27 +11687,27 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11749,27 +11729,27 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11791,27 +11771,27 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11833,27 +11813,27 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11875,27 +11855,27 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11917,27 +11897,27 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11954,37 +11934,37 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -11996,37 +11976,37 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -12058,12 +12038,12 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12100,12 +12080,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -12142,12 +12122,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12184,12 +12164,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12226,12 +12206,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12268,12 +12248,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12310,12 +12290,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12352,12 +12332,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12394,12 +12374,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12436,12 +12416,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12478,12 +12458,12 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12520,12 +12500,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -12562,20 +12542,398 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>MARLENE</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>NANCI</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>REGINA</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>ROMILDA</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -12584,4 +12942,271 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4835AA70C4D8D429578EE9EA2DD985E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5664f08413005a6c659c6cf8d2b1ae07">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xmlns:ns3="90d378fd-e11f-44e1-bf8c-be94be6862ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da305ccf9ee6e1c1ef9ec698176e69e" ns2:_="" ns3:_="">
+    <xsd:import namespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c"/>
+    <xsd:import namespace="90d378fd-e11f-44e1-bf8c-be94be6862ca"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1953b641-ef7e-4547-82ac-62cfa4e0045b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="465bad51-02e6-4ee3-aca2-97a00dffbf5c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90d378fd-e11f-44e1-bf8c-be94be6862ca" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a5e3a396-6ff9-41c4-9ea6-a3ac188d4dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90d378fd-e11f-44e1-bf8c-be94be6862ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE78199-239F-46A0-AF5B-B858CE8FC338}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D0CE3FF-393E-44A6-9E9D-9F712747127D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81739439-DA7D-4E06-BBCB-A17E81C90DD4}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -13200,13 +13200,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE78199-239F-46A0-AF5B-B858CE8FC338}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5217B3E-469F-4FDD-A685-6EB150FF7252}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D0CE3FF-393E-44A6-9E9D-9F712747127D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E27180C1-3DFE-4593-9FD5-EA1D3586BE09}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81739439-DA7D-4E06-BBCB-A17E81C90DD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08363DFA-0A46-4D01-B85E-C9E3F748737A}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4822,7 +4822,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+          <t>010E80ED25241F0B8C2C68472FED03CB</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4889,10 +4889,14 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
+          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4902,7 +4906,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4922,12 +4926,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
+          <t>71CCA9B1C31BB195D783C26087357800</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4937,7 +4941,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -4964,12 +4968,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
+          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -5002,12 +5006,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>B09FA11FF813D11B291D5D2148404904</t>
+          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5044,12 +5048,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
+          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -5062,7 +5066,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5082,12 +5086,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>6000A69FD38345E94CD5F48417E322E0</t>
+          <t>B09FA11FF813D11B291D5D2148404904</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5104,7 +5108,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5124,19 +5128,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5146,7 +5146,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>381725552941D96B3E519C462F80C308</t>
+          <t>6000A69FD38345E94CD5F48417E322E0</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5213,10 +5213,14 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5226,7 +5230,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5246,12 +5250,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cleuza</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>C9AC9040361D239607879447C79C4141</t>
+          <t>381725552941D96B3E519C462F80C308</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5261,14 +5265,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5288,19 +5292,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>F894248516B0C12E889D575C5B0BCD38</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5330,12 +5330,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Cleuza</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>878FEAD5322A30A366D5BB111724CD38</t>
+          <t>C9AC9040361D239607879447C79C4141</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+          <t>F894248516B0C12E889D575C5B0BCD38</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5414,12 +5414,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+          <t>878FEAD5322A30A366D5BB111724CD38</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5498,15 +5498,19 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>C78920FEA37C8424314EE6999D32CD93</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5536,12 +5540,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5578,12 +5582,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+          <t>C78920FEA37C8424314EE6999D32CD93</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -5616,12 +5620,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5638,7 +5642,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5658,19 +5662,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5680,7 +5680,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5700,15 +5700,19 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr"/>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5738,12 +5742,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>858F8BC32AE202824E8E30068BABC885</t>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5760,7 +5764,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5780,19 +5784,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5802,7 +5802,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5822,12 +5822,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
+          <t>858F8BC32AE202824E8E30068BABC885</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5879,14 +5879,14 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5906,12 +5906,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jurandir</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>956BA10DD30AE94223915B7BBACDA77B</t>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5928,7 +5928,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5948,15 +5948,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jurandir</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5966,7 +5970,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5986,12 +5990,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6001,7 +6005,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -6028,12 +6032,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>C26495A50177CF41D4C8425582B6D9DF</t>
+          <t>956BA10DD30AE94223915B7BBACDA77B</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6050,7 +6054,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6070,29 +6074,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6117,10 +6117,14 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
+          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6150,12 +6154,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
+          <t>C26495A50177CF41D4C8425582B6D9DF</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6172,7 +6176,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6192,25 +6196,29 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6230,19 +6238,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6252,7 +6256,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6272,15 +6276,19 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>E8775E9CF0B97F4313885D7493883EAE</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
+          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6290,7 +6298,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6310,19 +6318,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6352,12 +6356,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6374,7 +6378,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6394,29 +6398,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>E8775E9CF0B97F4313885D7493883EAE</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6441,10 +6441,14 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6454,7 +6458,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6474,12 +6478,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>262C8D78B788FE8E10B37F63790EA02C</t>
+          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6496,7 +6500,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6516,12 +6520,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6531,14 +6535,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6558,19 +6562,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6580,7 +6580,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6600,15 +6600,19 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
+          <t>262C8D78B788FE8E10B37F63790EA02C</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6638,12 +6642,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
+          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6680,12 +6684,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
+          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -6722,12 +6726,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>FA3929C36710AF57A54DE91D4458A85A</t>
+          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -6760,12 +6764,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6802,12 +6806,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
+          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6824,7 +6828,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6844,19 +6848,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>E707012699BE683796CD813AF6F6F4AD</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>FA3929C36710AF57A54DE91D4458A85A</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6866,7 +6866,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6886,15 +6886,19 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6909,27 +6913,27 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6951,27 +6955,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cleci</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
+          <t>E707012699BE683796CD813AF6F6F4AD</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6993,27 +6997,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Cleci</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>6957983878C95CB4EDF51BB2260110EC</t>
+          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -7026,7 +7030,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7046,12 +7050,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7088,12 +7092,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>E1D17F641C405F3137261DBE1E868793</t>
+          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7130,12 +7134,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
+          <t>6957983878C95CB4EDF51BB2260110EC</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -7148,7 +7152,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7168,12 +7172,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>CDC3571412820CF9017E4910CA14065B</t>
+          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7190,7 +7194,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7210,15 +7214,19 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>FA552E00F6BE0438307D41188B5F7B1D</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
+          <t>E1D17F641C405F3137261DBE1E868793</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7228,7 +7236,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7248,19 +7256,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>F746DB985681753067EE126476367354</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7270,7 +7274,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7290,15 +7294,19 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+          <t>CDC3571412820CF9017E4910CA14065B</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7308,7 +7316,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7328,19 +7336,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1E0BCC761C9102F203FE85F95B668378</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>FA552E00F6BE0438307D41188B5F7B1D</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7370,12 +7374,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
+          <t>F746DB985681753067EE126476367354</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7392,7 +7396,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7412,19 +7416,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7434,7 +7434,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7454,15 +7454,19 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
+          <t>1E0BCC761C9102F203FE85F95B668378</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7492,12 +7496,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Marli</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>AD1312462CEDF19B4CEDCFA1E337A46E</t>
+          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7514,7 +7518,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7534,15 +7538,19 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Marli</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>564BFCEC5D6BC6120CD3FEA1B09C6386</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
+          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7552,7 +7560,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7572,19 +7580,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>107FA83B470FDF7DA92100EFA78F1820</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7594,7 +7598,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7614,15 +7618,19 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Marli</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>276824C1C7BC62258BDB95A026043A73</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
+          <t>AD1312462CEDF19B4CEDCFA1E337A46E</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7632,7 +7640,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7652,19 +7660,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Nilva</t>
+          <t>Marli</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>A310746694C20249509EFF10BB459DB3</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>564BFCEC5D6BC6120CD3FEA1B09C6386</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7694,12 +7698,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+          <t>107FA83B470FDF7DA92100EFA78F1820</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7736,12 +7740,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+          <t>276824C1C7BC62258BDB95A026043A73</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -7774,12 +7778,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Nilva</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>A310746694C20249509EFF10BB459DB3</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7796,7 +7800,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7816,12 +7820,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7831,7 +7835,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -7858,12 +7862,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>F58588B87BF51B895223371D1018E16F</t>
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -7896,12 +7900,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7918,7 +7922,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7938,30 +7942,34 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7971,24 +7979,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F58588B87BF51B895223371D1018E16F</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7998,12 +8002,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8013,20 +8017,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H186" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8036,12 +8044,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8051,24 +8059,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8078,7 +8082,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8098,15 +8102,19 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr"/>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8116,7 +8124,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8136,19 +8144,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8158,7 +8162,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8178,15 +8182,19 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr"/>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8196,39 +8204,35 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>JARAU</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CANTAGALO</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PR0065000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8238,37 +8242,37 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8280,39 +8284,35 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8342,12 +8342,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8384,12 +8384,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8510,12 +8510,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8552,12 +8552,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8594,12 +8594,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8636,12 +8636,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -8678,12 +8678,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -8762,12 +8762,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8846,12 +8846,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8888,12 +8888,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8972,12 +8972,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9014,12 +9014,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9056,12 +9056,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9140,12 +9140,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9182,12 +9182,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9224,12 +9224,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9266,12 +9266,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9308,12 +9308,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9350,12 +9350,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9392,12 +9392,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9434,12 +9434,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9518,12 +9518,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9560,12 +9560,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9602,12 +9602,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9644,12 +9644,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9686,12 +9686,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9728,12 +9728,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9770,12 +9770,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9854,12 +9854,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9896,12 +9896,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9938,12 +9938,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9980,12 +9980,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10022,12 +10022,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10064,12 +10064,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10232,12 +10232,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10274,12 +10274,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10316,12 +10316,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10358,12 +10358,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10442,12 +10442,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10526,12 +10526,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10610,12 +10610,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10652,12 +10652,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10694,12 +10694,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10736,12 +10736,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10862,12 +10862,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10904,12 +10904,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10946,12 +10946,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10988,12 +10988,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11030,12 +11030,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11072,12 +11072,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11114,12 +11114,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11240,12 +11240,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11282,12 +11282,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11324,12 +11324,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11366,12 +11366,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11408,12 +11408,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11450,12 +11450,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11492,12 +11492,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11534,12 +11534,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11576,12 +11576,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11623,7 +11623,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11660,12 +11660,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11702,12 +11702,12 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11744,12 +11744,12 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11786,12 +11786,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11870,12 +11870,12 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11912,12 +11912,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11934,37 +11934,37 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -11976,37 +11976,37 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -12018,37 +12018,37 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -12060,37 +12060,37 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -12122,12 +12122,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12164,12 +12164,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12206,12 +12206,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12248,12 +12248,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12290,12 +12290,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12332,12 +12332,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12374,12 +12374,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12416,12 +12416,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12584,12 +12584,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12626,12 +12626,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12668,12 +12668,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>NANCI</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -12752,12 +12752,12 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>REGINA</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12794,12 +12794,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>ROMILDA</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12836,12 +12836,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>SONIA</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -12878,12 +12878,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>TAILSA</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -12925,15 +12925,99 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13200,13 +13284,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5217B3E-469F-4FDD-A685-6EB150FF7252}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2513809F-2542-4735-9680-EFEBCD5271F1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E27180C1-3DFE-4593-9FD5-EA1D3586BE09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D687E0-31B4-4C38-9292-45C13709DF12}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08363DFA-0A46-4D01-B85E-C9E3F748737A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4C5A27-BC05-4D45-BEFF-09281C4B00B4}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -478,22 +478,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,10 +503,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3FF2D22819B3330B814BC9017012393F</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Não</t>
@@ -521,27 +525,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Adelar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B3EE9D5D76BD409C47B284B0C6BC8CB7</t>
+          <t>3FF2D22819B3330B814BC9017012393F</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -554,35 +558,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>00ADED1F90850693EC31750E91F6DDDA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Não</t>
@@ -597,27 +605,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Gilson</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>06855696C53B152D1717D3DE86140AD1</t>
+          <t>B3EE9D5D76BD409C47B284B0C6BC8CB7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -630,35 +638,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3CA6C46411C695A1710CEFD2499C1735</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Não</t>
@@ -673,27 +685,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Ines</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
+          <t>29FDC80DB959F900F6DFDEAC1F0C765C</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -706,35 +718,39 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ACOPAM</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOA VENTURA DE SAO ROQUE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PR0287000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>078361EC3D7AF904BAF708191384988D</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>809B407CDE2B12254E2C10CA565FA258</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Não</t>
@@ -744,32 +760,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A302966FBEB8741A989E30E3C1DB84A1</t>
+          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -786,32 +802,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
+          <t>C2A9E10308768937D00659DB0F499F27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -821,7 +837,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -833,27 +849,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Jorge</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+          <t>06855696C53B152D1717D3DE86140AD1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -871,27 +887,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -913,27 +929,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Andiara</t>
+          <t>Soeli</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>069ACF289074156352A4781DFCD0D264</t>
+          <t>3CA6C46411C695A1710CEFD2499C1735</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -946,32 +962,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>227226F2F74234576A6EFC794D8E21A2</t>
+          <t>D059819FE574FBA27BD1084144C2533C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -988,39 +1004,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Valderi</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A963B2E2DC5B0F6BD29DC8A31B09D4EF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1030,32 +1042,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01E0D01AEDE558F3342E9D727C41C649</t>
+          <t>78C39F6032417AA9939B72400CFDF106</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1065,7 +1077,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1077,27 +1089,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ANDER RODOLFO HENRIQUE</t>
+          <t>8 DE JUNHO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIAMANTE DO OESTE</t>
+          <t>LARANJEIRAS DO SUL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PR0395000</t>
+          <t>PR0264000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Claudineia</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+          <t>078361EC3D7AF904BAF708191384988D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1130,12 +1142,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
+          <t>A302966FBEB8741A989E30E3C1DB84A1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1172,12 +1184,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5AB0DA0076CB4A7BC654C14601170805</t>
+          <t>7A7091058DBBDBDBFFEC38A46A34A73F</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1194,7 +1206,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1214,29 +1226,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7DE34ABB18DFC4184EA4ECFE7822F34E</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1256,15 +1264,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cristiane</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0B020F956312AEDBA007ECBA724ED40B</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>1E28611DB40D7BCF9AF123CC4CC60BFE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1274,7 +1286,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1294,19 +1306,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Andiara</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>069ACF289074156352A4781DFCD0D264</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1316,7 +1324,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1336,15 +1344,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Debora</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>227226F2F74234576A6EFC794D8E21A2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1354,7 +1366,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1374,12 +1386,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
+          <t>58258FAC18CC8DE705C5107FC0A0B759</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1396,7 +1408,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1416,12 +1428,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
+          <t>01E0D01AEDE558F3342E9D727C41C649</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1431,14 +1443,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1458,29 +1470,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Claudineia</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF93B4687B22186B9F40FA9CAF59355D</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1500,15 +1508,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gabriel</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>912B181376702376839E92A34234AB6F</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>180B234A9A4D11A43083BF6E6BFF3617</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1538,12 +1550,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>916E2681C0054750A9E687574A0B6489</t>
+          <t>5AB0DA0076CB4A7BC654C14601170805</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1560,7 +1572,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1580,25 +1592,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>F17621921D038A38C3EB0D53E3733F98</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>B44DAF5094FF26D7D29600F23051E9C7</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1618,19 +1634,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Cristiane</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1E537B21C14022C7B938D8D4143D5D13</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>0B020F956312AEDBA007ECBA724ED40B</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1660,12 +1672,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Laudiceia</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>14C5879842FBF191CCE378771DE20033</t>
+          <t>874465517EEF60A1E4B3C3E4DBF99215</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1682,7 +1694,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1702,19 +1714,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Debora</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>25B5DA7A79DCC134ADF32C921CBAB522</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1724,7 +1732,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1744,12 +1752,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
+          <t>962E98FB0F61D261DB0D48C557F70ED2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1766,7 +1774,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1786,12 +1794,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6B45729139C2A27BC5092915C751010D</t>
+          <t>9D159FDA14EB647768A2EF8FCA866AF5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1801,14 +1809,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1828,25 +1836,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Luciane</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2A8C3895F9792659241327C30A81AC6D</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>42A275CFB3A429A9CA6E7AB9FB7521B6</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1866,19 +1878,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2744A5DD0FB23CF12E824C7583B75EEC</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>912B181376702376839E92A34234AB6F</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1908,12 +1916,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1A97F4E202A341184318AE16C57D676A</t>
+          <t>916E2681C0054750A9E687574A0B6489</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1930,7 +1938,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1950,29 +1958,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Juliana</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>78617BCAD1B0BCAC07F275EC2C868794</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F17621921D038A38C3EB0D53E3733F98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1992,15 +1996,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Marlei</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>1E537B21C14022C7B938D8D4143D5D13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2010,7 +2018,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2030,12 +2038,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Laudiceia</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5D79082732416772252230E1D5490EFA</t>
+          <t>14C5879842FBF191CCE378771DE20033</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2052,7 +2060,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2072,12 +2080,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Milene</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>55DD509716CC263B93E3CBE427D08A02</t>
+          <t>C54F6E8F93CF6FDCB460C4EC27CB5D0B</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2094,7 +2102,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2114,12 +2122,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>65A0D7B4C24375A608DAC6FADAD989A5</t>
+          <t>56FEDF1CFCC0CE78021FA9F765943DA5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2136,7 +2144,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2156,12 +2164,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
+          <t>6B45729139C2A27BC5092915C751010D</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2171,14 +2179,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2198,29 +2206,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Luciane</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3FD1B0E32DF6DABC36E289DAE1225183</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2A8C3895F9792659241327C30A81AC6D</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2240,15 +2244,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nilda</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AF14E2ECA5517720C86670A62C3904DA</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>2744A5DD0FB23CF12E824C7583B75EEC</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2258,7 +2266,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2278,12 +2286,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5D78DE87B5868A34CFA30112DD368838</t>
+          <t>1A97F4E202A341184318AE16C57D676A</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2300,7 +2308,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2320,12 +2328,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BC998959680EB2D70139D8E84542E2F2</t>
+          <t>78617BCAD1B0BCAC07F275EC2C868794</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2335,14 +2343,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2362,29 +2370,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Marlei</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>C6B08D75EAF0BA2614CDED593506EE5C</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7ACF437DA3089897B5DEF97EE5ADB295</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2404,15 +2408,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>5D79082732416772252230E1D5490EFA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2422,7 +2430,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2442,12 +2450,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Milene</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
+          <t>55DD509716CC263B93E3CBE427D08A02</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2464,7 +2472,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2484,12 +2492,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
+          <t>65A0D7B4C24375A608DAC6FADAD989A5</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2506,7 +2514,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2526,12 +2534,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4B510245B4216AB5086C563FB12FB142</t>
+          <t>AE754F4FC5F9BFEDC085712FA01026BA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2541,14 +2549,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2568,25 +2576,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rosali</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>C154AC8381DB0FCD102A1559720175A7</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>3FD1B0E32DF6DABC36E289DAE1225183</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2606,19 +2618,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Roselei</t>
+          <t>Nilda</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4C941FC79CECAC99DE5A133CBE6CBBEF</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>AF14E2ECA5517720C86670A62C3904DA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2628,7 +2636,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2648,12 +2656,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Roselei</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FAF18ECBD427EC03D66972A9A389E0B6</t>
+          <t>5D78DE87B5868A34CFA30112DD368838</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2670,7 +2678,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2690,12 +2698,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+          <t>BC998959680EB2D70139D8E84542E2F2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2712,7 +2720,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2732,12 +2740,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+          <t>C6B08D75EAF0BA2614CDED593506EE5C</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2747,14 +2755,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2774,19 +2782,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>183830569A2CEF2EEF133D2A68AB051A</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>EFDC3F40D59FE406CC2DEF20D8044981</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2796,7 +2800,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2816,12 +2820,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
+          <t>B60C7E7F1D99B95E70667D96328CBC70</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2838,7 +2842,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2858,12 +2862,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>866FFD0DE100FC917059EF68503DA039</t>
+          <t>1981ACD0B95BCA268D57836FFB95AE3A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2873,14 +2877,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2900,25 +2904,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DB62A611FC09102671B3EA905E42C24C</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>4B510245B4216AB5086C563FB12FB142</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2938,19 +2946,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Valdemar</t>
+          <t>Rosali</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1EC12E84E4CC9ED8FC92160DECFCF15E</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C154AC8381DB0FCD102A1559720175A7</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2960,7 +2964,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2980,12 +2984,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Valdemar</t>
+          <t>Roselei</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>417993C4DBC75A5AFB8702A6E8DF1F2E</t>
+          <t>4C941FC79CECAC99DE5A133CBE6CBBEF</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3002,7 +3006,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3022,12 +3026,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Valdemar</t>
+          <t>Roselei</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>6DAB23FAD316D1A695F91E2AA3269362</t>
+          <t>FAF18ECBD427EC03D66972A9A389E0B6</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3037,14 +3041,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3064,15 +3068,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Valdemar</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B51387D7D3AACD1978130CE13E6135D2</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>112D6F0C94649FCED3C07DC35802FB79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3082,7 +3090,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3102,15 +3110,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Vilmar</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>3BC79CA16E0DD94D83CCEF5BE4EFD256</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3120,37 +3132,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ABEGAIR</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4659B7A30E2601F378DEB2E26CC34160</t>
+          <t>183830569A2CEF2EEF133D2A68AB051A</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3162,37 +3174,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
+          <t>B68A9D35C6E7C78C65B895D9B4E8DCBA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3204,81 +3216,77 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>E037A2380B613F045D433F38DE37C94C</t>
+          <t>866FFD0DE100FC917059EF68503DA039</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>Simone</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>DB62A611FC09102671B3EA905E42C24C</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3288,37 +3296,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CLAILTON</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
+          <t>1EC12E84E4CC9ED8FC92160DECFCF15E</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3330,37 +3338,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EDINEI</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>125020B35918660F7BB7CFC53190FCB6</t>
+          <t>417993C4DBC75A5AFB8702A6E8DF1F2E</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3372,81 +3380,77 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ELENA</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
+          <t>6DAB23FAD316D1A695F91E2AA3269362</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ELZA</t>
+          <t>Valdemar</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>655424431A8B5F3909615336BD17841B</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>B51387D7D3AACD1978130CE13E6135D2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3456,39 +3460,35 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ANJO DA GUARDA I</t>
+          <t>ANDER RODOLFO HENRIQUE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>DIAMANTE DO OESTE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PR0330000</t>
+          <t>PR0395000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ENORINA</t>
+          <t>Vilmar</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>3DFD541F6F09F958714D62AF64C1117A</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>F77DBF14F49FCBA5D570864B9B5782D0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>IVONE</t>
+          <t>ABEGAIR</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FB44300B753ABE326562ED9D0D72CE70</t>
+          <t>4659B7A30E2601F378DEB2E26CC34160</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>JESUVINA</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
+          <t>E8E29B0CF7747AD1704653C32DDCBADC</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
+          <t>E037A2380B613F045D433F38DE37C94C</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3644,12 +3644,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2994FFBD435DDC1D01F812137427B9BC</t>
+          <t>4455E4BD6D4B48A0769DF97535BECA61</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3686,12 +3686,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>CLAILTON</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
+          <t>FE8F4C07C79E5F59B4EF75F85A873EDD</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>EDINEI</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4D2DF594A01AB6E595524124A4D13559</t>
+          <t>125020B35918660F7BB7CFC53190FCB6</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MARILENE</t>
+          <t>ELENA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
+          <t>15B79CA41D6EB08ECB182BA3BAE440EB</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>ELZA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>14A7AC36E520550299E9A4CCB6965C71</t>
+          <t>655424431A8B5F3909615336BD17841B</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MARLI</t>
+          <t>ENORINA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
+          <t>3DFD541F6F09F958714D62AF64C1117A</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NEIVA</t>
+          <t>IVONE</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>523E7AF091A03C4043D5C9300BC145E2</t>
+          <t>FB44300B753ABE326562ED9D0D72CE70</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ROSIELI</t>
+          <t>JESUVINA</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>97CE285D147B6D4950F8576126FF2790</t>
+          <t>E78E2AA354DE219A0C39E8DC9B6ABC2E</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3980,12 +3980,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ROSMARI</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5EE88834BE81F9B132B670B4935B2045</t>
+          <t>9807FD589F5FAE6F0B160299B3BF14EF</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ROZALE</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
+          <t>2994FFBD435DDC1D01F812137427B9BC</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4064,12 +4064,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SANTINA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
+          <t>209746A4FFC3C3338AD57552A1E83BE5</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+          <t>4D2DF594A01AB6E595524124A4D13559</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SILVIA</t>
+          <t>MARILENE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+          <t>0745C0BB61ACBE83AD0B3EA4A52D05BA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SIVENEI</t>
+          <t>MARLENE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
+          <t>14A7AC36E520550299E9A4CCB6965C71</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOELI</t>
+          <t>MARLI</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>F487ECDF1C33289A90771E483D5F9850</t>
+          <t>B0D5862E69F98DA6F7A0661076B8684A</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>NEIVA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>91B82F46BB6722C855901D73395F74C3</t>
+          <t>523E7AF091A03C4043D5C9300BC145E2</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VALERIA</t>
+          <t>ROSIELI</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
+          <t>97CE285D147B6D4950F8576126FF2790</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>ROSMARI</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+          <t>5EE88834BE81F9B132B670B4935B2045</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4400,12 +4400,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ZELIA</t>
+          <t>ROZALE</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
+          <t>2E1D277B91BDCBC9123B1408BE73EF95</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4422,37 +4422,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PR0260000</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>SANTINA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
+          <t>E8F2C4F8144AE6186376F0B243F41A45</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4464,35 +4464,39 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BANDEIRANTES</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PR0260000</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Fernanda</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t>FACE3828DD6456398038C0E5DBD30DF2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4502,35 +4506,39 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ARILDO</t>
+          <t>SILVIA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2692C39A994F0391832065B3368104D8</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
+          <t>0C8FF5C5CB7E18BCD7F33CBB8659149B</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4540,37 +4548,37 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Adelar</t>
+          <t>SIVENEI</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>98518C564982BC7968097BDEDA2A9BDB</t>
+          <t>5A1DEF016BCD58F9AC8B56E3B0059AF4</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4582,37 +4590,37 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>SOELI</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>8A6E1D71E498BB31786C3264249087BA</t>
+          <t>F487ECDF1C33289A90771E483D5F9850</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4624,35 +4632,39 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>TEREZINHA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>7AE9703D3A7E20108D1B4A3EE652FA8F</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
+          <t>91B82F46BB6722C855901D73395F74C3</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4662,37 +4674,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>VALERIA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
+          <t>235625BE6AD69CD5CCD8EEE28070EF97</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4704,35 +4716,39 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>82EAA18D919100879D4BB554860AF551</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
+          <t>AAD30565EEE58D53934640A5A0C5217A</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4742,37 +4758,37 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>ANJO DA GUARDA I</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MANGUEIRINHA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0330000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Arlei</t>
+          <t>ZELIA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>8E72E0C936FC67DED5A7375366300F38</t>
+          <t>B8DE5448881F3B1A6AB70F13663A970C</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4784,35 +4800,39 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0260000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Arlei</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1136A6D50AEF3916A511239319485135</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
+          <t>F3307895FED7F0D5C2B7A74EEF8C2483</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4822,39 +4842,35 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>BANDEIRANTES</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0260000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>010E80ED25241F0B8C2C68472FED03CB</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CDF1FCFBB3B12CE4E1D9C160C4ABCA2F</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>Não</t>
@@ -4869,27 +4885,27 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4906,32 +4922,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>71CCA9B1C31BB195D783C26087357800</t>
+          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4941,7 +4957,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -4953,27 +4969,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Cleci</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
+          <t>6957983878C95CB4EDF51BB2260110EC</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4986,32 +5002,32 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
+          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5028,35 +5044,39 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
+          <t>E1D17F641C405F3137261DBE1E868793</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5066,39 +5086,35 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Gleison</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>B09FA11FF813D11B291D5D2148404904</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5108,35 +5124,39 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
+          <t>CDC3571412820CF9017E4910CA14065B</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5146,39 +5166,35 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>6000A69FD38345E94CD5F48417E322E0</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>FA552E00F6BE0438307D41188B5F7B1D</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5193,27 +5209,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
+          <t>F746DB985681753067EE126476367354</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5230,77 +5246,77 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Jacques</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>381725552941D96B3E519C462F80C308</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
+          <t>1E0BCC761C9102F203FE85F95B668378</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5315,27 +5331,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Cleuza</t>
+          <t>Jose</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>C9AC9040361D239607879447C79C4141</t>
+          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5352,32 +5368,32 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>F894248516B0C12E889D575C5B0BCD38</t>
+          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5394,39 +5410,35 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Maite</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>878FEAD5322A30A366D5BB111724CD38</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5441,27 +5453,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Marli</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+          <t>AD1312462CEDF19B4CEDCFA1E337A46E</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5478,39 +5490,35 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gilson</t>
+          <t>Marli</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>00ADED1F90850693EC31750E91F6DDDA</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>564BFCEC5D6BC6120CD3FEA1B09C6386</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5525,27 +5533,27 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
+          <t>107FA83B470FDF7DA92100EFA78F1820</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5567,27 +5575,27 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>C78920FEA37C8424314EE6999D32CD93</t>
+          <t>276824C1C7BC62258BDB95A026043A73</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -5605,27 +5613,27 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Nilva</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+          <t>A310746694C20249509EFF10BB459DB3</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5642,35 +5650,39 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5680,39 +5692,35 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ines</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>65D4E9AD6E9AD42D5D2AF07D18B2CD4B</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5727,27 +5735,27 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5764,77 +5772,77 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>A71C6EE061980E0CDBEABD2F1589E91D</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F58588B87BF51B895223371D1018E16F</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5849,27 +5857,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>858F8BC32AE202824E8E30068BABC885</t>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5886,39 +5894,35 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>809B407CDE2B12254E2C10CA565FA258</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5933,27 +5937,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2D218C1BFBE8EB50BC25C05DE9FF1CDE</t>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5970,42 +5974,38 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Jorge</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>C2A9E10308768937D00659DB0F499F27</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -6017,27 +6017,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jurandir</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>956BA10DD30AE94223915B7BBACDA77B</t>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6059,27 +6059,27 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Jurandir</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -6092,32 +6092,32 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6134,39 +6134,35 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>C26495A50177CF41D4C8425582B6D9DF</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6176,77 +6172,77 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>ARILDO</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>2692C39A994F0391832065B3368104D8</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
+          <t>8A6E1D71E498BB31786C3264249087BA</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H142" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6256,39 +6252,35 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7AE9703D3A7E20108D1B4A3EE652FA8F</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6298,35 +6290,39 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
+          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H144" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6336,39 +6332,35 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>82EAA18D919100879D4BB554860AF551</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6378,35 +6370,39 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>E8775E9CF0B97F4313885D7493883EAE</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
+          <t>8E72E0C936FC67DED5A7375366300F38</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6416,39 +6412,35 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>1136A6D50AEF3916A511239319485135</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6458,32 +6450,32 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+          <t>010E80ED25241F0B8C2C68472FED03CB</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6500,32 +6492,32 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
+          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6535,84 +6527,84 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
+          <t>71CCA9B1C31BB195D783C26087357800</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>262C8D78B788FE8E10B37F63790EA02C</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6627,27 +6619,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6664,39 +6656,35 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6706,35 +6694,39 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
+          <t>B09FA11FF813D11B291D5D2148404904</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6744,39 +6736,35 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Soeli</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>38CDC4B2F0320D2B1A9C254073D919E9</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6786,32 +6774,32 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
+          <t>6000A69FD38345E94CD5F48417E322E0</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6828,35 +6816,39 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>FA3929C36710AF57A54DE91D4458A85A</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6866,32 +6858,32 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Valderi</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>D059819FE574FBA27BD1084144C2533C</t>
+          <t>381725552941D96B3E519C462F80C308</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6901,46 +6893,42 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Vanessa</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>78C39F6032417AA9939B72400CFDF106</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6955,27 +6943,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Cleuza</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>E707012699BE683796CD813AF6F6F4AD</t>
+          <t>C9AC9040361D239607879447C79C4141</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6992,35 +6980,39 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Desconhecido</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
+          <t>F894248516B0C12E889D575C5B0BCD38</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7035,27 +7027,27 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>66F0D558365A1DA10F1A1FED9BA77CF2</t>
+          <t>878FEAD5322A30A366D5BB111724CD38</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7077,27 +7069,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cleci</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>B56EEC688F9C88FB34AFB45E21E1FBA0</t>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7114,35 +7106,39 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Cleci</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>6957983878C95CB4EDF51BB2260110EC</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
+          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7152,39 +7148,35 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>B9675A7C0E1FCE53D24C3CD1964536AE</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C78920FEA37C8424314EE6999D32CD93</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7199,27 +7191,27 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>E1D17F641C405F3137261DBE1E868793</t>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7241,27 +7233,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Gleison</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>543E605CC3224CAB612E0E4DDEAE4B5C</t>
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -7279,27 +7271,27 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>CDC3571412820CF9017E4910CA14065B</t>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7321,27 +7313,27 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>FA552E00F6BE0438307D41188B5F7B1D</t>
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -7354,32 +7346,32 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>F746DB985681753067EE126476367354</t>
+          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7396,35 +7388,39 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jacques</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>60DB856AD2D7E4E7BEE0999C400ADB38</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
+          <t>858F8BC32AE202824E8E30068BABC885</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7434,32 +7430,32 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1E0BCC761C9102F203FE85F95B668378</t>
+          <t>956BA10DD30AE94223915B7BBACDA77B</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7476,39 +7472,35 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>71910DEB28AE8D3186DDE5A5B7BDBA62</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7518,32 +7510,32 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CBFEB28B53256D66A5BE118FF2D11639</t>
+          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7560,35 +7552,39 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Maite</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>35F155C618F5893B2A82E30E1F0B25E1</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
+          <t>C26495A50177CF41D4C8425582B6D9DF</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7598,32 +7594,32 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Marli</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>AD1312462CEDF19B4CEDCFA1E337A46E</t>
+          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7633,7 +7629,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -7645,27 +7641,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Marli</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>564BFCEC5D6BC6120CD3FEA1B09C6386</t>
+          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
@@ -7683,27 +7679,27 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>107FA83B470FDF7DA92100EFA78F1820</t>
+          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7725,27 +7721,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>276824C1C7BC62258BDB95A026043A73</t>
+          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -7763,27 +7759,27 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Nilva</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>A310746694C20249509EFF10BB459DB3</t>
+          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7800,39 +7796,35 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>E8775E9CF0B97F4313885D7493883EAE</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7842,35 +7834,39 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr"/>
+          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7885,27 +7881,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7927,27 +7923,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7969,27 +7965,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>F58588B87BF51B895223371D1018E16F</t>
+          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -8002,32 +7998,32 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+          <t>262C8D78B788FE8E10B37F63790EA02C</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8044,35 +8040,39 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>EDUARDO RADUAN</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>PR0207000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
+          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H187" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8087,27 +8087,27 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
+          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8129,27 +8129,27 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -8167,27 +8167,27 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8209,27 +8209,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
+          <t>FA3929C36710AF57A54DE91D4458A85A</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -8247,27 +8247,27 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>E707012699BE683796CD813AF6F6F4AD</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8289,27 +8289,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MARMELEIRO</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -13284,13 +13284,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2513809F-2542-4735-9680-EFEBCD5271F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22DDA4B-0FBA-405C-86AD-B268BC2DD561}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0D687E0-31B4-4C38-9292-45C13709DF12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3003EF87-2BEC-42B5-99B5-9767BAA8B340}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4C5A27-BC05-4D45-BEFF-09281C4B00B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1CFE7A-5209-4180-A77A-F0B95C8DDE9F}"/>
 </file>
--- a/02_contPGT.xlsx
+++ b/02_contPGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5670,12 +5670,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Paulo</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+          <t>1DCACC285BD0AF6035C260D1545D056C</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5712,12 +5712,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Reni</t>
+          <t>Paulo</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+          <t>C252E530C0199BF482742F1A02085196</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Raoana</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>CE1276F7048776509703823EC84F749C</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5772,7 +5772,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Renato</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>A71C6EE061980E0CDBEABD2F1589E91D</t>
+          <t>7BBB079E58EF9F735D6FEC5F0BC39BBA</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -5834,12 +5834,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sidinei</t>
+          <t>Renato</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>F58588B87BF51B895223371D1018E16F</t>
+          <t>957C6107BF839CBDC66ADAB8F34DC949</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5872,12 +5872,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>53F35BB59A446CC332CC67BAB96301B0</t>
+          <t>3606F8F4B6C1D7D17D7D3C5D2C7AB950</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5894,7 +5894,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5914,15 +5914,19 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
+          <t>0D5DDD43B5A4BEB7A27E2548A07B6CDB</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5932,12 +5936,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5947,24 +5951,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Reni</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>5603871BEFECB0AFAB70917123F89B62</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>CD0A1774B4122B20B0A04F390266EC5C</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
           <t>Não</t>
@@ -5974,12 +5974,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5989,20 +5989,24 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr"/>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6012,12 +6016,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6027,17 +6031,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>35C1C4254934A59CA02EB17A83B83366</t>
+          <t>A71C6EE061980E0CDBEABD2F1589E91D</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6047,7 +6051,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6063,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6069,17 +6073,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Mateus</t>
+          <t>Sidinei</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>6A9A80FECC140C47E666996C67F48185</t>
+          <t>F58588B87BF51B895223371D1018E16F</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -6097,7 +6101,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6107,17 +6111,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+          <t>53F35BB59A446CC332CC67BAB96301B0</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6139,7 +6143,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FAZENDA PERSEVERANÇA</t>
+          <t>EDUARDO RADUAN</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6149,17 +6153,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PR0028000</t>
+          <t>PR0207000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Vandressa</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+          <t>DF4E2414E64E62FFCECDD80CBB8460AA</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -6172,35 +6176,39 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JOSÉ DIAS</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>PR0122000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ARILDO</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2692C39A994F0391832065B3368104D8</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>5603871BEFECB0AFAB70917123F89B62</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6210,39 +6218,35 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>JOSÉ DIAS</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>PR0122000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>8A6E1D71E498BB31786C3264249087BA</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>A0117E050A1C7FB2BA66C9E8A09E276D</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6252,35 +6256,39 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>JOSÉ DIAS</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>PR0122000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Alexandre</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>7AE9703D3A7E20108D1B4A3EE652FA8F</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
+          <t>35C1C4254934A59CA02EB17A83B83366</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6290,39 +6298,35 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JOSÉ DIAS</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>PR0122000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mateus</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>6A9A80FECC140C47E666996C67F48185</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6332,35 +6336,39 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JOSÉ DIAS</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PR0122000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>82EAA18D919100879D4BB554860AF551</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr"/>
+          <t>6A7BDCE23209F0AE35D1B1405B6E31D8</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6370,39 +6378,35 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>JOSÉ DIAS</t>
+          <t>FAZENDA PERSEVERANÇA</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>INACIO MARTINS</t>
+          <t>MARMELEIRO</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PR0122000</t>
+          <t>PR0028000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Arlei</t>
+          <t>Vandressa</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>8E72E0C936FC67DED5A7375366300F38</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>4A9BD6FEB4126E745C70109123AC2FF2</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6432,12 +6436,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Arlei</t>
+          <t>ARILDO</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1136A6D50AEF3916A511239319485135</t>
+          <t>2692C39A994F0391832065B3368104D8</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -6450,7 +6454,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6470,12 +6474,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>010E80ED25241F0B8C2C68472FED03CB</t>
+          <t>8A6E1D71E498BB31786C3264249087BA</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6492,7 +6496,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6512,19 +6516,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Alexandre</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7AE9703D3A7E20108D1B4A3EE652FA8F</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6534,7 +6534,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6554,12 +6554,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>71CCA9B1C31BB195D783C26087357800</t>
+          <t>F8B16C145CF8801EB0B1BA45978A6F39</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Caroline</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
+          <t>82EAA18D919100879D4BB554860AF551</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -6634,12 +6634,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
+          <t>8E72E0C936FC67DED5A7375366300F38</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Arlei</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
+          <t>1136A6D50AEF3916A511239319485135</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -6694,7 +6694,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>B09FA11FF813D11B291D5D2148404904</t>
+          <t>010E80ED25241F0B8C2C68472FED03CB</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6756,15 +6756,19 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Clemair</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>BB959C2567A1491AA5E2E1A04ED800FC</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6774,7 +6778,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6794,12 +6798,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>6000A69FD38345E94CD5F48417E322E0</t>
+          <t>71CCA9B1C31BB195D783C26087357800</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6809,14 +6813,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6836,19 +6840,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C3288684A8A7F9CE622A88EE992FB44C</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
           <t>Não</t>
@@ -6858,7 +6858,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6878,12 +6878,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>381725552941D96B3E519C462F80C308</t>
+          <t>6EBB6730A8C2640E32B732D1CCF7E7DB</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -6920,12 +6920,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cleonice</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
+          <t>B2866EB85DCB1EA1CCF9740A0C705B68</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -6958,12 +6958,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cleuza</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>C9AC9040361D239607879447C79C4141</t>
+          <t>B09FA11FF813D11B291D5D2148404904</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6980,7 +6980,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7000,19 +7000,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Clemair</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>F894248516B0C12E889D575C5B0BCD38</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>3A367F62A7AA5199DAAB368217FBDBB1</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7022,7 +7018,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7042,12 +7038,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Dangela</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>878FEAD5322A30A366D5BB111724CD38</t>
+          <t>6000A69FD38345E94CD5F48417E322E0</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7084,12 +7080,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Eliane</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
+          <t>3B16FE3801F392EEBBEEE639D87BEBA6</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7106,7 +7102,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7126,12 +7122,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
+          <t>381725552941D96B3E519C462F80C308</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7141,7 +7137,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -7168,12 +7164,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>Cleonice</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>C78920FEA37C8424314EE6999D32CD93</t>
+          <t>A4E66EC9FEE5D1878725BCFD2B9BBFDA</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -7186,7 +7182,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7206,12 +7202,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Cleuza</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+          <t>7CA200702438DF61B40F0CDB56498E30</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7228,7 +7224,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7248,15 +7244,19 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Higor</t>
+          <t>Cleuza</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
+          <t>C9AC9040361D239607879447C79C4141</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7266,7 +7266,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7286,12 +7286,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
+          <t>F894248516B0C12E889D575C5B0BCD38</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7328,15 +7328,19 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Irene</t>
+          <t>Dangela</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
+          <t>878FEAD5322A30A366D5BB111724CD38</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7346,7 +7350,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7366,12 +7370,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Eliane</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
+          <t>135B5B7AB621B553779D0C6D79F86CAA</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7408,12 +7412,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>858F8BC32AE202824E8E30068BABC885</t>
+          <t>EB2DC2B4300D7C6F6AB21C410AEBDFEA</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7430,7 +7434,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7450,19 +7454,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jurandir</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>956BA10DD30AE94223915B7BBACDA77B</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C78920FEA37C8424314EE6999D32CD93</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7472,7 +7472,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7492,15 +7492,19 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jurandir</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
+          <t>5DE4DC543ED51D7CCE1212D3774FA7EA</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7510,7 +7514,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7530,19 +7534,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Higor</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>7953CBF2B46B761D1AA20A8E27668DCA</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7572,12 +7572,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>C26495A50177CF41D4C8425582B6D9DF</t>
+          <t>C41FE6367B4AF6A5A1ABC2CFD3B6327D</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7594,7 +7594,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização (2º Relatório)</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7614,29 +7614,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Irene</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>973661A159FD1A1FD45A3E48FDDB80DC</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7656,15 +7652,19 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Marcilia</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
+          <t>6E75E5F8BCB6023C21D06076E84AE158</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7694,12 +7694,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
+          <t>858F8BC32AE202824E8E30068BABC885</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7716,7 +7716,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7736,15 +7736,19 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr"/>
+          <t>956BA10DD30AE94223915B7BBACDA77B</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7754,7 +7758,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7774,19 +7778,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Jurandir</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>F4DE8434DE5E1FD3FE7EBC104B8AA98B</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7796,7 +7796,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7816,15 +7816,19 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Neusa</t>
+          <t>Luiz</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>E8775E9CF0B97F4313885D7493883EAE</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
+          <t>361F2EAC8D2436B48901FA75DE08364D</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
           <t>Não</t>
@@ -7854,12 +7858,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
+          <t>DF86BE9E964FBB7964F6A694BB68EDD5</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7896,12 +7900,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+          <t>C26495A50177CF41D4C8425582B6D9DF</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7938,12 +7942,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
+          <t>EA9C3C37E59AF03EF9DFD9A27DA6D351</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7980,12 +7984,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Renilda</t>
+          <t>Marcilia</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
+          <t>0809A50EF9DD13A7EE0C7D61FBCE5B6E</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -7998,7 +8002,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8018,12 +8022,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>262C8D78B788FE8E10B37F63790EA02C</t>
+          <t>003C7CBA1DEA6A676EC9AC41D6EF1CE9</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8040,7 +8044,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8060,19 +8064,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Roseli</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Regularização</t>
-        </is>
-      </c>
+          <t>C59DF0F39AD3ADDD50DA73416FD7D196</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8102,12 +8102,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
+          <t>3EAB47BB9B02FC841A75AE26A2CBED41</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8144,12 +8144,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Rozineia</t>
+          <t>Neusa</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
+          <t>E8775E9CF0B97F4313885D7493883EAE</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -8162,7 +8162,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8182,12 +8182,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
+          <t>65B3B11DBB7CD60152F0E032243BFA3E</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8204,7 +8204,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Solicitação de documentação complementar</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8224,15 +8224,19 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sueli</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>FA3929C36710AF57A54DE91D4458A85A</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
+          <t>403582D92D8B623DFAAF3F8E5FE5BC5B</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Regularização</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8242,7 +8246,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -8262,12 +8266,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>E707012699BE683796CD813AF6F6F4AD</t>
+          <t>8275A7D6C38E162E31B2D4D8AA0B26F1</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8277,7 +8281,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
@@ -8304,12 +8308,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Volnei</t>
+          <t>Renilda</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
+          <t>BEB0CD85DDA72A5842C04746F828C34B</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -8322,37 +8326,37 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ADAO</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
+          <t>262C8D78B788FE8E10B37F63790EA02C</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8364,37 +8368,37 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ADELMO</t>
+          <t>Roseli</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
+          <t>10234AD1EEAF6EEFD7F660283EA09B39</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8406,37 +8410,37 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ADRIANE</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
+          <t>E9DD4CB409F4964D8BEBFE94A1530FCC</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8448,39 +8452,35 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ADRIANO</t>
+          <t>Rozineia</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>435804F17C048647DBCF7293E4203BD6</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>ADAEADDC96E9E00F524F6F24A5969D63</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8490,37 +8490,37 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ALEDIR</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>03B9CA051196BD5D701A33BDC15CD539</t>
+          <t>1BE4BBA0E8FCA31E5004D2F00DF68A7D</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8532,39 +8532,35 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ALTIDOR</t>
+          <t>Sueli</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>FDE7919B6759EF9A9C4BE21E</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>FA3929C36710AF57A54DE91D4458A85A</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8574,37 +8570,37 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AMARILDO</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
+          <t>27A0BC1AC8CB441CD7870E77BDB6576F</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8616,37 +8612,37 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AMAURI</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
+          <t>E707012699BE683796CD813AF6F6F4AD</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8658,81 +8654,77 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização (2º Relatório)</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ANA</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
+          <t>7C93BE91E68607134DDB8D3463798B94</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Solicitação de documentação complementar</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MARCOS FREIRE</t>
+          <t>JOSÉ DIAS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>RIO BONITO DO IGUACU</t>
+          <t>INACIO MARTINS</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>PR0179000</t>
+          <t>PR0122000</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ANDRE</t>
+          <t>Volnei</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>8D667040D470EA3BC965931E</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
+          <t>32D123CAE7C2F8BA0EA2C8032A5140FC</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
           <t>Não</t>
@@ -8762,12 +8754,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ANDREI</t>
+          <t>ADAO</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
+          <t>014BAB36F8CB0E3974B4D3EC3DA67634</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -8804,12 +8796,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ANDRESA</t>
+          <t>ADELMO</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
+          <t>B1D7D4C55F3632708DAF7A11F625069D</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -8846,12 +8838,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>ADRIANE</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>58F188E7D70832A4700CE195</t>
+          <t>E1EFAD895566A0F831CC975AFFD6BE72</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8888,12 +8880,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ADRIANO</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>A266E3C437EC493A2E7592743F9F605D</t>
+          <t>435804F17C048647DBCF7293E4203BD6</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -8930,12 +8922,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>ALEDIR</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
+          <t>03B9CA051196BD5D701A33BDC15CD539</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -8972,12 +8964,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CLEUNIR</t>
+          <t>ALTIDOR</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>E9EA2B28A0593A9CBFF504EF</t>
+          <t>FDE7919B6759EF9A9C4BE21E</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9014,12 +9006,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>CLEUSMERE</t>
+          <t>AMARILDO</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
+          <t>35ACBB8EBE445EC62AE84B9241C1D840</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9056,12 +9048,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CREZOLINA</t>
+          <t>AMAURI</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
+          <t>A35AB902B32CF8BDCF9EB71F521CFA46</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -9098,12 +9090,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>DALMO</t>
+          <t>ANA</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
+          <t>EA5217E5C084E59EAE8A6C2AA044310E</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9140,12 +9132,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>DEBRA</t>
+          <t>ANDRE</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>15846C0DF7AAF89C173C8848</t>
+          <t>8D667040D470EA3BC965931E</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9182,12 +9174,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>DOMINGOS</t>
+          <t>ANDREI</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
+          <t>CFC10F9DE33CBC91485B143BAE6BEC58</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9224,12 +9216,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>EGINO</t>
+          <t>ANDRESA</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>C3082229B0D7CF513C2F50F741236CE1</t>
+          <t>A1DB26C8961C29C557DD82714A5AE9DD</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9266,12 +9258,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ELIAS</t>
+          <t>ANTONIO</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>80AC8030BFF2207AFE5C641DC1228308</t>
+          <t>58F188E7D70832A4700CE195</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9308,12 +9300,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ELOIR</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
+          <t>A266E3C437EC493A2E7592743F9F605D</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9350,12 +9342,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>CARLOS</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>5849C202A865C8DA</t>
+          <t>2899E8F3CC332BD0DFB530AEB5930BBC</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9392,12 +9384,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ESMERALDO</t>
+          <t>CLEUNIR</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>B70093BB744DECFE135A97385DF281B3</t>
+          <t>E9EA2B28A0593A9CBFF504EF</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9434,12 +9426,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>EVA</t>
+          <t>CLEUSMERE</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>B53D642DE3BD0515FC91DFF9</t>
+          <t>36C1BF6A0B5B4EB53752A2B13558AFE0</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -9476,12 +9468,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>EVANIR</t>
+          <t>CREZOLINA</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
+          <t>2A4397DE68D8075CE4C924196B95CFE1</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9518,12 +9510,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FLAVIA</t>
+          <t>DALMO</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
+          <t>C8E81BC5A10922EE9C0A2DAC104CAB53</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9560,12 +9552,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>FRANCIELI</t>
+          <t>DEBRA</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
+          <t>15846C0DF7AAF89C173C8848</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9602,12 +9594,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>GILMAR</t>
+          <t>DOMINGOS</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1E8240C317FFA21814EA4826AEF409B9</t>
+          <t>023AB3CC001228BC5C78D6DE47A089BF</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9644,12 +9636,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>GLORIA</t>
+          <t>EGINO</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>591DAE110B436D51CC6928D3702BA1F8</t>
+          <t>C3082229B0D7CF513C2F50F741236CE1</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -9686,12 +9678,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>HILARIO</t>
+          <t>ELIAS</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>9976454DF3F3166A83B8F0C704008AB1</t>
+          <t>80AC8030BFF2207AFE5C641DC1228308</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -9728,12 +9720,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ILARIO</t>
+          <t>ELOIR</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
+          <t>C61CADE2ED4EE9A29FA9A771765E568B</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9770,12 +9762,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>INES</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
+          <t>5849C202A865C8DA</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9812,12 +9804,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>IRACIDE</t>
+          <t>ESMERALDO</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>6583EF3F9EC67EC1B67B7609</t>
+          <t>B70093BB744DECFE135A97385DF281B3</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9854,12 +9846,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>IRACILDE</t>
+          <t>EVA</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>57B51F2B28E0E13A333B8A85</t>
+          <t>B53D642DE3BD0515FC91DFF9</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9896,12 +9888,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>IRINEU</t>
+          <t>EVANIR</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
+          <t>267FF1F6A1BCD73DB1D9D0ADA51AAEF6</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -9938,12 +9930,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>IRONI</t>
+          <t>FLAVIA</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>1A331663D155C747E23A40C0</t>
+          <t>2A57C76ED89EEFEA15A976ADF2F4781C</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -9980,12 +9972,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>IVETE</t>
+          <t>FRANCIELI</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
+          <t>DAEF2AD926A2B4EB8EB4C56D5463F646</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10022,12 +10014,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>IZOLINA</t>
+          <t>GILMAR</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>E8311641DD7356CA67855B70815D9859</t>
+          <t>1E8240C317FFA21814EA4826AEF409B9</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -10064,12 +10056,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>JILSON</t>
+          <t>GLORIA</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
+          <t>591DAE110B436D51CC6928D3702BA1F8</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -10106,12 +10098,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>JOAO</t>
+          <t>HILARIO</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>120C7899FEE3C6579152DBD4</t>
+          <t>9976454DF3F3166A83B8F0C704008AB1</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10148,12 +10140,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>JOAQUIM</t>
+          <t>ILARIO</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
+          <t>58D6EA764BEC5BC4BF7EABE58C7199AD</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10190,12 +10182,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>INES</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>63C0EB546AA0E8525A7606F839430BD5</t>
+          <t>530CF447A29FC6961A49A0DFA1DF0F40</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10232,12 +10224,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>IRACIDE</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>B93DF3590401ADB0124B7B426BA573D1</t>
+          <t>6583EF3F9EC67EC1B67B7609</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10274,12 +10266,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>JOSILENE</t>
+          <t>IRACILDE</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>B014E612149D2006410E59E4F311B062</t>
+          <t>57B51F2B28E0E13A333B8A85</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10316,12 +10308,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>JULIO</t>
+          <t>IRINEU</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
+          <t>0C1C208288BB698047B0DFC37B7FB3D9</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -10358,12 +10350,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>IRONI</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
+          <t>1A331663D155C747E23A40C0</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10400,12 +10392,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>LUIZ</t>
+          <t>IVETE</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>C793E56EFE371E0712981CAB2602CDDE</t>
+          <t>8C9D6BA0F9EA40D362B6124E962ED22E</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10442,12 +10434,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>MARCILIO</t>
+          <t>IZOLINA</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>7475D48F01F271414EABB477303B2735</t>
+          <t>E8311641DD7356CA67855B70815D9859</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -10484,12 +10476,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JILSON</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>8DDEB4F9760987B92279CC48</t>
+          <t>4CA428A3EAC673AAFDBEF1636A12CA17</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10526,12 +10518,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>JOAO</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>AD4CD742CA930B61</t>
+          <t>120C7899FEE3C6579152DBD4</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -10568,12 +10560,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>JOAQUIM</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
+          <t>40EBCBBFAB5A1EC1DB67AA5725F2B026</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -10610,12 +10602,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MIGUEL</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
+          <t>63C0EB546AA0E8525A7606F839430BD5</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10652,12 +10644,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
+          <t>B93DF3590401ADB0124B7B426BA573D1</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10694,12 +10686,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>NERI</t>
+          <t>JOSILENE</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>F42DD84280AE898E757D84D2E9F472CD</t>
+          <t>B014E612149D2006410E59E4F311B062</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -10736,12 +10728,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>NERIVANI</t>
+          <t>JULIO</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
+          <t>76D9BA95E9C84BA95BF126BCA99A9AA9</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10778,12 +10770,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>NILTON</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
+          <t>0B41EE7BE4281E63D58B11F3B8FEB055</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10820,12 +10812,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ODAIR</t>
+          <t>LUIZ</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>0E61191DDCB2E017A4BF5B25</t>
+          <t>C793E56EFE371E0712981CAB2602CDDE</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10862,12 +10854,12 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ODILON</t>
+          <t>MARCILIO</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
+          <t>7475D48F01F271414EABB477303B2735</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10904,12 +10896,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>ODIR</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>ED924C1703207F58C226ABD2BA894DC1</t>
+          <t>8DDEB4F9760987B92279CC48</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -10946,12 +10938,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ORLEI</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
+          <t>AD4CD742CA930B61</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10988,12 +10980,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>654A36C55A7A1D234064B5A150C66FEF</t>
+          <t>99E6FE7324EF6FFA3BB063D2C868946B</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11030,12 +11022,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>MIGUEL</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>0886B84EF904DD7B7596DA309703D0F5</t>
+          <t>8D233C11EAAABA4D8A8CE025C13D31CD</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11072,12 +11064,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>PEDRO</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>C222D7A9E0E0AFBFB7E45B03</t>
+          <t>65942DD6FFC0EE274CCBD1A6C3EFFFF5</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -11114,12 +11106,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>RAMILIO</t>
+          <t>NERI</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>807265C0454852BA53A79CDADC28E736</t>
+          <t>F42DD84280AE898E757D84D2E9F472CD</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11156,12 +11148,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>RICHARDE</t>
+          <t>NERIVANI</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>EE90CB435A0F0F5688C31C5734E45864</t>
+          <t>CCEABCD76CD04AA74B01F1BF0493082E</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11198,12 +11190,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>RISONEIDE</t>
+          <t>NILTON</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>62D7F5DA2D9208AEECE1E82D</t>
+          <t>8EB91B8D2B2E04B30FDE95E2470826D9</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11240,12 +11232,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ROSANE</t>
+          <t>ODAIR</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>DC98DD629486BBE60096FD8F</t>
+          <t>0E61191DDCB2E017A4BF5B25</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -11282,12 +11274,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>ROSELI</t>
+          <t>ODILON</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1688F39642A8A4E06AE623BA</t>
+          <t>F4831649F90BE10AA5B8A15EC3A664B2</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11324,12 +11316,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>ROSILEI</t>
+          <t>ODIR</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
+          <t>ED924C1703207F58C226ABD2BA894DC1</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11366,12 +11358,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SANDRA</t>
+          <t>ORLEI</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
+          <t>FB138AA0FBB43A5DF6DD4BB50AE45870</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11408,12 +11400,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SERGIO</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>5AF5202624AA851F0618548C4848A4AE</t>
+          <t>654A36C55A7A1D234064B5A150C66FEF</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -11450,12 +11442,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
+          <t>0886B84EF904DD7B7596DA309703D0F5</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -11492,12 +11484,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>SOLANGE</t>
+          <t>PEDRO</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
+          <t>C222D7A9E0E0AFBFB7E45B03</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11534,12 +11526,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TERESA</t>
+          <t>RAMILIO</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
+          <t>807265C0454852BA53A79CDADC28E736</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11576,12 +11568,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>VAGNER</t>
+          <t>RICHARDE</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
+          <t>EE90CB435A0F0F5688C31C5734E45864</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11618,12 +11610,12 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>RISONEIDE</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>3AF27C20C44C67BCD6AB41CA</t>
+          <t>62D7F5DA2D9208AEECE1E82D</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11660,12 +11652,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>ROSANE</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>36E63A5F9DA84577A287AB3AD7838570</t>
+          <t>DC98DD629486BBE60096FD8F</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11702,12 +11694,12 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>VALDECIR</t>
+          <t>ROSELI</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>3E1E4FE810431C4FAF864692F4496356</t>
+          <t>1688F39642A8A4E06AE623BA</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11744,12 +11736,12 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>VALDELIR</t>
+          <t>ROSILEI</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>4A67F2639BF3A22A</t>
+          <t>23FCBDBD8A17FC8EF61FB334FD963002</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -11786,12 +11778,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>VALDEMAR</t>
+          <t>SANDRA</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
+          <t>C4AF5B6C1763061DA4404FAB647B474A</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11828,12 +11820,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>VALMOR</t>
+          <t>SERGIO</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
+          <t>5AF5202624AA851F0618548C4848A4AE</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11870,12 +11862,12 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
+          <t>49971DF5A6A1886DEA2B3BCB2BDC7A22</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11912,12 +11904,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>VERA</t>
+          <t>SOLANGE</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
+          <t>0B5B7F20B3AAF66B3B11AFE2690CA8FF</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -11954,12 +11946,12 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>VIVALDINO</t>
+          <t>TERESA</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>C573D9CB02AD42FB2BA99478</t>
+          <t>79F85F694A43544B6A80F8EEEADEE33B</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11996,12 +11988,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>ZELI</t>
+          <t>VAGNER</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
+          <t>054C62B69E7F11FCD7A625EFA87F7B64</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -12018,37 +12010,37 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Análise para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
+          <t>3AF27C20C44C67BCD6AB41CA</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -12060,37 +12052,37 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para regularização</t>
+          <t>Relatório de conformidades para titulação</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ROSELI NUNES</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SAO JERONIMO DA SERRA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>PR0229000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Guilherme</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>B53F099B4CC28D9A9292715B93005CED</t>
+          <t>36E63A5F9DA84577A287AB3AD7838570</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Regularização</t>
+          <t>Titulação</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -12107,27 +12099,27 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ALGEO</t>
+          <t>VALDECIR</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>80D3B91F0216135B589BD5134F748BE4</t>
+          <t>3E1E4FE810431C4FAF864692F4496356</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12149,27 +12141,27 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CATIANE</t>
+          <t>VALDELIR</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
+          <t>4A67F2639BF3A22A</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12191,27 +12183,27 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>ELIANA</t>
+          <t>VALDEMAR</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
+          <t>19CEF982DA697F35F531B1DAFC8F7736</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -12233,27 +12225,27 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>EVANDRO</t>
+          <t>VALMOR</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
+          <t>0B73B73D62DFDE7539EF7D58EE0FD900</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -12275,27 +12267,27 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>IZABEL</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
+          <t>4AE8DF88CA22D75D3B87C078E601B5BA</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -12317,27 +12309,27 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>JULIANA</t>
+          <t>VERA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>AA6394BAB4043191E564E776EC94F4C6</t>
+          <t>7D9410A51C9BECD98BE4AB73CCFF94EF</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12359,27 +12351,27 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>LORENI</t>
+          <t>VIVALDINO</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>999B529D8030164D1E16CE7F3496EC60</t>
+          <t>C573D9CB02AD42FB2BA99478</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -12401,27 +12393,27 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>MARCOS FREIRE</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>RIO BONITO DO IGUACU</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0179000</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>LUANA</t>
+          <t>ZELI</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
+          <t>ABAD0132624D7093B20B4BD8E232D5D4</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12438,37 +12430,37 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Análise para regularização</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>C440E6C136BB58D379DE9883737840BD</t>
+          <t>4C91EE4CEE2814F5667059FBECB733FC</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -12480,37 +12472,37 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Relatório de conformidades para titulação</t>
+          <t>Relatório de conformidades para regularização</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>SÃO JOÃO MARIA</t>
+          <t>ROSELI NUNES</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>MANGUEIRINHA</t>
+          <t>SAO JERONIMO DA SERRA</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>PR0308000</t>
+          <t>PR0229000</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>Guilherme</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>08805B016AF8931C656D00E6E80B9466</t>
+          <t>B53F099B4CC28D9A9292715B93005CED</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Titulação</t>
+          <t>Regularização</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -12542,12 +12534,12 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ALGEO</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>D65A19FFE192E628CE690DB63B90862E</t>
+          <t>80D3B91F0216135B589BD5134F748BE4</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -12584,12 +12576,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>CATIANE</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>B4EA879215CFC5260D19A24205CFA111</t>
+          <t>313BF2A9C5097FEFFA6D111181AAC4C6</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -12626,12 +12618,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>ELIANA</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+          <t>4EC1DF1919FB1C6A2E61932168F1FEC4</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -12668,12 +12660,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>MARLENE</t>
+          <t>EVANDRO</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+          <t>D878A8A453365E4F339D6A70EDB8BE5F</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12710,12 +12702,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>NANCI</t>
+          <t>IZABEL</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+          <t>6BC9955D6D4517F542719718ADBB5CBA</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -12752,12 +12744,12 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>REGINA</t>
+          <t>JULIANA</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>25786A793A5E92E236C386E5EA1A111E</t>
+          <t>AA6394BAB4043191E564E776EC94F4C6</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12794,12 +12786,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>ROMILDA</t>
+          <t>LORENI</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+          <t>999B529D8030164D1E16CE7F3496EC60</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -12836,12 +12828,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>SONIA</t>
+          <t>LUANA</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+          <t>51CAF6761F8B63C53F18AADA77CF47C9</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -12878,12 +12870,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TAILSA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>E53D810CA1A5D031192DC175E8881B21</t>
+          <t>C440E6C136BB58D379DE9883737840BD</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -12920,12 +12912,12 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+          <t>08805B016AF8931C656D00E6E80B9466</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -12962,12 +12954,12 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>TEREZINHA</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+          <t>D65A19FFE192E628CE690DB63B90862E</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -13004,20 +12996,440 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>B4EA879215CFC5260D19A24205CFA111</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>MARIA</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>FF15CA7EE716FCAC990751FAFDBEEEEC</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>MARLENE</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>B00D5B9FA91B68F970242DCD9F0A2DCC</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>NANCI</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>7ED6ADA5B005BD1EA7FC7C29E8D8EEDA</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>REGINA</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>25786A793A5E92E236C386E5EA1A111E</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>ROMILDA</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>44B922FE7347C3BD1F6E071D9FCD5B3E</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>SONIA</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>3AFD839D7CD5A2D302FF80ECD7C722FA</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>TAILSA</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>E53D810CA1A5D031192DC175E8881B21</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
           <t>TEREZINHA</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>F6CF1DA014356D45EC15E37A4CAD9891</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>4D9C66485D8CF7DBC3E43B8472D1E365</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Relatório de conformidades para titulação</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SÃO JOÃO MARIA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>MANGUEIRINHA</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>PR0308000</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>TEREZINHA</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
         <is>
           <t>CEB80B59A443673B14CFDA604C151E3F</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>Titulação</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Titulação</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -13026,271 +13438,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4835AA70C4D8D429578EE9EA2DD985E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5664f08413005a6c659c6cf8d2b1ae07">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xmlns:ns3="90d378fd-e11f-44e1-bf8c-be94be6862ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4da305ccf9ee6e1c1ef9ec698176e69e" ns2:_="" ns3:_="">
-    <xsd:import namespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c"/>
-    <xsd:import namespace="90d378fd-e11f-44e1-bf8c-be94be6862ca"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="465bad51-02e6-4ee3-aca2-97a00dffbf5c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1953b641-ef7e-4547-82ac-62cfa4e0045b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="465bad51-02e6-4ee3-aca2-97a00dffbf5c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90d378fd-e11f-44e1-bf8c-be94be6862ca" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a5e3a396-6ff9-41c4-9ea6-a3ac188d4dd1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90d378fd-e11f-44e1-bf8c-be94be6862ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="465bad51-02e6-4ee3-aca2-97a00dffbf5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C22DDA4B-0FBA-405C-86AD-B268BC2DD561}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3003EF87-2BEC-42B5-99B5-9767BAA8B340}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1CFE7A-5209-4180-A77A-F0B95C8DDE9F}"/>
 </file>